--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10389C90-B0BF-4D49-90F6-A626CB4C3F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -194,11 +195,17 @@
   <si>
     <t>Pre-registration UI Specification</t>
   </si>
+  <si>
+    <t>a36ea737-1875-49a6-8fef-501514f164c9</t>
+  </si>
+  <si>
+    <t>{"identity":{"identity":[{"id":"IDSchemaVersion","description":"ID Schema Version","type":"number","controlType":null,"fieldType":"default","inputRequired":false,"validators":[],"required":true},{"id":"fullName","description":"Enter Full Name","labelName":{"eng":"Full Name","ara":"الاسم الكامل","fra":"Nom complet"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[{"type":"regex","validator":"^(?=.{0,50}$).*","arguments":[]}],"required":true,"transliteration":true},{"id":"gender","description":"Enter Gender","labelName":{"eng":"Gender","ara":"جنس","fra":"Le genre"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","subType":"gender","type":"simpleType","validators":[],"required":true},{"id":"dateOfBirth","description":"Enter DOB","labelName":{"eng":"Date Of Birth","ara":"تاريخ الولادة","fra":"Date de naissance"},"controlType":"ageDate","inputRequired":true,"fieldType":"default","type":"string","validators":[],"required":true},{"id":"residenceStatus","description":"Residence status","labelName":{"eng":"Residence Status","ara":"حالة الإقامة","fra":"Statut de résidence"},"controlType":"dropdown","inputRequired":true,"fieldType":"dynamic","subType":"residenceStatus","type":"simpleType","validators":[],"required":true},{"id":"address","description":"Address","labelName":{"eng":"Address","ara":"عنوان","fra":"Adresse"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"required":false,"transliteration":true},{"id":"state","description":"State","labelName":{"eng":"State","ara":"دولة","fra":"Etat"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"locationHierarchyLevel":1,"required":true},{"id":"city","description":"City","labelName":{"eng":"City","ara":"فيل","fra":"Ville"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"locationHierarchyLevel":2,"required":true},{"id":"locality","description":"Locality","labelName":{"eng":"Locality","ara":"المنطقة","fra":"Localité"},"controlType":"dropdown","inputRequired":true,"fieldType":"default","type":"simpleType","validators":[],"required":true},{"id":"postalCode","description":"postalCode","labelName":{"eng":"Postal Code","ara":"الكود البريدى","fra":"code postal"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[]}],"locationHierarchyLevel":5,"required":true},{"id":"phone","description":"phone","labelName":{"eng":"Phone","ara":"هاتف","fra":"Téléphone"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^([6-9]{1})([0-9]{9})$","arguments":[]}],"required":true},{"id":"email","description":"email","labelName":{"eng":"Email","ara":"البريد الإلكتروني","fra":"Email"},"controlType":"textbox","inputRequired":true,"fieldType":"default","type":"string","validators":[{"type":"regex","validator":"^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$","arguments":[]}],"required":true},{"id":"proofOfAddress","description":"proofOfAddress","labelName":{"ara":"إثبات العنوان","fra":"Address Proof","eng":"Address Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POA","required":false},{"id":"proofOfIdentity","description":"proofOfIdentity","labelName":{"ara":"إثبات الهوية","fra":"Identity Proof","eng":"Identity Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POI","required":false},{"id":"proofOfRelationship","description":"proofOfRelationship","labelName":{"ara":"إثبات العلاقة","fra":"Relationship Proof","eng":"Relationship Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POR","required":false},{"id":"proofOfDateOfBirth","description":"proofOfDateOfBirth","labelName":{"ara":"دليل DOB","fra":"DOB Proof","eng":"DOB Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POB","required":false},{"id":"proofOfException","description":"proofOfException","labelName":{"ara":"إثبات الاستثناء","fra":"Exception Proof","eng":"Exception Proof"},"controlType":"fileupload","inputRequired":true,"validators":[],"subType":"POE","required":false}],"locationHierarchy":["state","city","locality"]}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,32 +498,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="1" max="2" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="26" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+    <col min="12" max="15" width="8.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
+    <col min="17" max="26" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -626,7 +633,7 @@
       </c>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
@@ -680,7 +687,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -734,7 +741,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
@@ -788,7 +795,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -850,7 +857,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -912,7 +919,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -974,7 +981,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
@@ -1036,24 +1043,58 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="6">
+        <v>110024</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="6">
+        <v>110024</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -1064,7 +1105,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1092,7 +1133,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1112,7 +1153,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1132,7 +1173,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1152,7 +1193,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1172,7 +1213,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1192,7 +1233,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1212,7 +1253,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1232,7 +1273,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1252,7 +1293,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1272,7 +1313,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1292,7 +1333,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1312,7 +1353,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1332,7 +1373,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1352,7 +1393,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1372,7 +1413,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1392,7 +1433,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1412,7 +1453,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1432,7 +1473,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1452,7 +1493,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1472,7 +1513,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1492,7 +1533,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1512,7 +1553,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1532,7 +1573,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1552,7 +1593,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1572,7 +1613,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1592,7 +1633,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1612,7 +1653,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1632,7 +1673,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1652,7 +1693,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1672,7 +1713,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1692,7 +1733,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1712,7 +1753,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1732,7 +1773,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1752,7 +1793,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1772,7 +1813,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1792,7 +1833,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
     </row>
-    <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1812,7 +1853,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1832,7 +1873,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1852,7 +1893,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1872,7 +1913,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1892,7 +1933,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1912,7 +1953,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1932,7 +1973,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1952,7 +1993,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1972,7 +2013,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1992,7 +2033,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2012,7 +2053,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2032,7 +2073,7 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
     </row>
-    <row r="59" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2052,7 +2093,7 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
     </row>
-    <row r="60" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2072,7 +2113,7 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
-    <row r="61" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2092,7 +2133,7 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
     </row>
-    <row r="62" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2112,7 +2153,7 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
     </row>
-    <row r="63" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2132,7 +2173,7 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
     </row>
-    <row r="64" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2152,7 +2193,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2172,7 +2213,7 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2192,7 +2233,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2212,7 +2253,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2232,7 +2273,7 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
-    <row r="69" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2252,7 +2293,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2272,7 +2313,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2292,7 +2333,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2312,7 +2353,7 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
     </row>
-    <row r="73" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2332,7 +2373,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2352,7 +2393,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2372,7 +2413,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2392,7 +2433,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2412,7 +2453,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2432,7 +2473,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2452,7 +2493,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2472,7 +2513,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2492,7 +2533,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2512,7 +2553,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2532,7 +2573,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2552,7 +2593,7 @@
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
     </row>
-    <row r="85" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2572,7 +2613,7 @@
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
     </row>
-    <row r="86" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2592,7 +2633,7 @@
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2612,7 +2653,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2632,7 +2673,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2652,7 +2693,7 @@
       <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
     </row>
-    <row r="90" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2672,7 +2713,7 @@
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2692,7 +2733,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2712,7 +2753,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2732,7 +2773,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2752,7 +2793,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2772,7 +2813,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2792,7 +2833,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2812,7 +2853,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2832,7 +2873,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2852,7 +2893,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2872,7 +2913,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2892,7 +2933,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2912,7 +2953,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2932,7 +2973,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2952,7 +2993,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2972,7 +3013,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2992,7 +3033,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3012,7 +3053,7 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3032,7 +3073,7 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3052,7 +3093,7 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3072,7 +3113,7 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3092,7 +3133,7 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3112,7 +3153,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3132,7 +3173,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3152,7 +3193,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3172,7 +3213,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3192,7 +3233,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3212,7 +3253,7 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3232,7 +3273,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3252,7 +3293,7 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3272,7 +3313,7 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3292,7 +3333,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3312,7 +3353,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3332,7 +3373,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3352,7 +3393,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3372,7 +3413,7 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3392,7 +3433,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3412,7 +3453,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3432,7 +3473,7 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3452,7 +3493,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3472,7 +3513,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3492,7 +3533,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3512,7 +3553,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3532,7 +3573,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3552,7 +3593,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3572,7 +3613,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3592,7 +3633,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3612,7 +3653,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3632,7 +3673,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3652,7 +3693,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3672,7 +3713,7 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3692,7 +3733,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3712,7 +3753,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3732,7 +3773,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3752,7 +3793,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3772,7 +3813,7 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3792,7 +3833,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3812,7 +3853,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3832,7 +3873,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3852,7 +3893,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3872,7 +3913,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3892,7 +3933,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3912,7 +3953,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3932,7 +3973,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3952,7 +3993,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3972,7 +4013,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3992,7 +4033,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4012,7 +4053,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4032,7 +4073,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4052,7 +4093,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4072,7 +4113,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4092,7 +4133,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4112,7 +4153,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4132,7 +4173,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4152,7 +4193,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4172,7 +4213,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4192,7 +4233,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4212,7 +4253,7 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4232,7 +4273,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4252,7 +4293,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4272,7 +4313,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4292,7 +4333,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4312,7 +4353,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4332,7 +4373,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4352,7 +4393,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4372,7 +4413,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4392,7 +4433,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4412,7 +4453,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4432,7 +4473,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4452,7 +4493,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4472,7 +4513,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4492,7 +4533,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4512,7 +4553,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4532,7 +4573,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4552,7 +4593,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4572,7 +4613,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4592,7 +4633,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4612,7 +4653,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4632,7 +4673,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4652,7 +4693,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4672,7 +4713,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4692,7 +4733,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4712,7 +4753,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4732,7 +4773,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4752,7 +4793,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4772,7 +4813,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4792,7 +4833,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4812,7 +4853,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4832,7 +4873,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4852,7 +4893,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4872,7 +4913,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4892,7 +4933,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4912,7 +4953,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4932,7 +4973,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4952,7 +4993,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4972,7 +5013,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4992,7 +5033,7 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -5012,7 +5053,7 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5032,7 +5073,7 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -5052,7 +5093,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -5072,7 +5113,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -5092,7 +5133,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -5112,7 +5153,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5132,7 +5173,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -5152,7 +5193,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -5172,7 +5213,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -5192,7 +5233,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -5212,7 +5253,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5232,7 +5273,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -5252,7 +5293,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5272,7 +5313,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5292,7 +5333,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -5312,7 +5353,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -5332,7 +5373,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5352,7 +5393,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -5372,7 +5413,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5392,7 +5433,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5412,7 +5453,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -5432,7 +5473,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -5452,7 +5493,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -5472,7 +5513,7 @@
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -5492,7 +5533,7 @@
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -5512,7 +5553,7 @@
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -5532,7 +5573,7 @@
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -5552,7 +5593,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -5572,7 +5613,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -5592,7 +5633,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5612,7 +5653,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -5632,7 +5673,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -5652,7 +5693,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5672,7 +5713,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5692,7 +5733,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5712,7 +5753,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -5732,7 +5773,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5752,7 +5793,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -5772,7 +5813,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -5792,7 +5833,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -5812,7 +5853,7 @@
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -5832,7 +5873,7 @@
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
-    <row r="249" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -5852,7 +5893,7 @@
       <c r="Q249" s="2"/>
       <c r="R249" s="2"/>
     </row>
-    <row r="250" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5872,7 +5913,7 @@
       <c r="Q250" s="2"/>
       <c r="R250" s="2"/>
     </row>
-    <row r="251" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5892,7 +5933,7 @@
       <c r="Q251" s="2"/>
       <c r="R251" s="2"/>
     </row>
-    <row r="252" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -5912,7 +5953,7 @@
       <c r="Q252" s="2"/>
       <c r="R252" s="2"/>
     </row>
-    <row r="253" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -5932,7 +5973,7 @@
       <c r="Q253" s="2"/>
       <c r="R253" s="2"/>
     </row>
-    <row r="254" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -5952,7 +5993,7 @@
       <c r="Q254" s="2"/>
       <c r="R254" s="2"/>
     </row>
-    <row r="255" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -5972,7 +6013,7 @@
       <c r="Q255" s="2"/>
       <c r="R255" s="2"/>
     </row>
-    <row r="256" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -5992,7 +6033,7 @@
       <c r="Q256" s="2"/>
       <c r="R256" s="2"/>
     </row>
-    <row r="257" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -6012,7 +6053,7 @@
       <c r="Q257" s="2"/>
       <c r="R257" s="2"/>
     </row>
-    <row r="258" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -6032,7 +6073,7 @@
       <c r="Q258" s="2"/>
       <c r="R258" s="2"/>
     </row>
-    <row r="259" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -6052,7 +6093,7 @@
       <c r="Q259" s="2"/>
       <c r="R259" s="2"/>
     </row>
-    <row r="260" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -6072,7 +6113,7 @@
       <c r="Q260" s="2"/>
       <c r="R260" s="2"/>
     </row>
-    <row r="261" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -6092,7 +6133,7 @@
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
     </row>
-    <row r="262" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -6112,7 +6153,7 @@
       <c r="Q262" s="2"/>
       <c r="R262" s="2"/>
     </row>
-    <row r="263" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -6132,7 +6173,7 @@
       <c r="Q263" s="2"/>
       <c r="R263" s="2"/>
     </row>
-    <row r="264" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -6152,7 +6193,7 @@
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
     </row>
-    <row r="265" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -6172,7 +6213,7 @@
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
     </row>
-    <row r="266" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -6192,7 +6233,7 @@
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
     </row>
-    <row r="267" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -6212,7 +6253,7 @@
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
     </row>
-    <row r="268" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -6232,7 +6273,7 @@
       <c r="Q268" s="2"/>
       <c r="R268" s="2"/>
     </row>
-    <row r="269" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -6252,7 +6293,7 @@
       <c r="Q269" s="2"/>
       <c r="R269" s="2"/>
     </row>
-    <row r="270" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -6272,7 +6313,7 @@
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
     </row>
-    <row r="271" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -6292,7 +6333,7 @@
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
     </row>
-    <row r="272" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -6312,7 +6353,7 @@
       <c r="Q272" s="2"/>
       <c r="R272" s="2"/>
     </row>
-    <row r="273" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -6332,7 +6373,7 @@
       <c r="Q273" s="2"/>
       <c r="R273" s="2"/>
     </row>
-    <row r="274" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -6352,7 +6393,7 @@
       <c r="Q274" s="2"/>
       <c r="R274" s="2"/>
     </row>
-    <row r="275" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -6372,7 +6413,7 @@
       <c r="Q275" s="2"/>
       <c r="R275" s="2"/>
     </row>
-    <row r="276" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -6392,7 +6433,7 @@
       <c r="Q276" s="2"/>
       <c r="R276" s="2"/>
     </row>
-    <row r="277" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -6412,7 +6453,7 @@
       <c r="Q277" s="2"/>
       <c r="R277" s="2"/>
     </row>
-    <row r="278" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -6432,7 +6473,7 @@
       <c r="Q278" s="2"/>
       <c r="R278" s="2"/>
     </row>
-    <row r="279" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -6452,7 +6493,7 @@
       <c r="Q279" s="2"/>
       <c r="R279" s="2"/>
     </row>
-    <row r="280" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -6472,7 +6513,7 @@
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
     </row>
-    <row r="281" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -6492,7 +6533,7 @@
       <c r="Q281" s="2"/>
       <c r="R281" s="2"/>
     </row>
-    <row r="282" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -6512,7 +6553,7 @@
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
     </row>
-    <row r="283" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -6532,7 +6573,7 @@
       <c r="Q283" s="2"/>
       <c r="R283" s="2"/>
     </row>
-    <row r="284" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -6552,7 +6593,7 @@
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
     </row>
-    <row r="285" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -6572,7 +6613,7 @@
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
     </row>
-    <row r="286" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -6592,7 +6633,7 @@
       <c r="Q286" s="2"/>
       <c r="R286" s="2"/>
     </row>
-    <row r="287" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -6612,7 +6653,7 @@
       <c r="Q287" s="2"/>
       <c r="R287" s="2"/>
     </row>
-    <row r="288" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -6632,7 +6673,7 @@
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
     </row>
-    <row r="289" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -6652,7 +6693,7 @@
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
     </row>
-    <row r="290" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -6672,7 +6713,7 @@
       <c r="Q290" s="2"/>
       <c r="R290" s="2"/>
     </row>
-    <row r="291" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -6692,7 +6733,7 @@
       <c r="Q291" s="2"/>
       <c r="R291" s="2"/>
     </row>
-    <row r="292" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -6712,7 +6753,7 @@
       <c r="Q292" s="2"/>
       <c r="R292" s="2"/>
     </row>
-    <row r="293" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -6732,7 +6773,7 @@
       <c r="Q293" s="2"/>
       <c r="R293" s="2"/>
     </row>
-    <row r="294" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -6752,7 +6793,7 @@
       <c r="Q294" s="2"/>
       <c r="R294" s="2"/>
     </row>
-    <row r="295" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -6772,7 +6813,7 @@
       <c r="Q295" s="2"/>
       <c r="R295" s="2"/>
     </row>
-    <row r="296" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -6792,7 +6833,7 @@
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
     </row>
-    <row r="297" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -6812,7 +6853,7 @@
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
     </row>
-    <row r="298" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -6832,7 +6873,7 @@
       <c r="Q298" s="2"/>
       <c r="R298" s="2"/>
     </row>
-    <row r="299" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -6852,7 +6893,7 @@
       <c r="Q299" s="2"/>
       <c r="R299" s="2"/>
     </row>
-    <row r="300" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -6872,7 +6913,7 @@
       <c r="Q300" s="2"/>
       <c r="R300" s="2"/>
     </row>
-    <row r="301" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -6892,7 +6933,7 @@
       <c r="Q301" s="2"/>
       <c r="R301" s="2"/>
     </row>
-    <row r="302" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -6912,7 +6953,7 @@
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
     </row>
-    <row r="303" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -6932,7 +6973,7 @@
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
     </row>
-    <row r="304" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -6952,7 +6993,7 @@
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
     </row>
-    <row r="305" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -6972,7 +7013,7 @@
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
     </row>
-    <row r="306" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -6992,7 +7033,7 @@
       <c r="Q306" s="2"/>
       <c r="R306" s="2"/>
     </row>
-    <row r="307" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7012,7 +7053,7 @@
       <c r="Q307" s="2"/>
       <c r="R307" s="2"/>
     </row>
-    <row r="308" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -7032,7 +7073,7 @@
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
     </row>
-    <row r="309" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -7052,7 +7093,7 @@
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
     </row>
-    <row r="310" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -7072,7 +7113,7 @@
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
     </row>
-    <row r="311" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -7092,7 +7133,7 @@
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
     </row>
-    <row r="312" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -7112,7 +7153,7 @@
       <c r="Q312" s="2"/>
       <c r="R312" s="2"/>
     </row>
-    <row r="313" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -7132,7 +7173,7 @@
       <c r="Q313" s="2"/>
       <c r="R313" s="2"/>
     </row>
-    <row r="314" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -7152,7 +7193,7 @@
       <c r="Q314" s="2"/>
       <c r="R314" s="2"/>
     </row>
-    <row r="315" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -7172,7 +7213,7 @@
       <c r="Q315" s="2"/>
       <c r="R315" s="2"/>
     </row>
-    <row r="316" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -7192,7 +7233,7 @@
       <c r="Q316" s="2"/>
       <c r="R316" s="2"/>
     </row>
-    <row r="317" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -7212,7 +7253,7 @@
       <c r="Q317" s="2"/>
       <c r="R317" s="2"/>
     </row>
-    <row r="318" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7232,7 +7273,7 @@
       <c r="Q318" s="2"/>
       <c r="R318" s="2"/>
     </row>
-    <row r="319" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -7252,7 +7293,7 @@
       <c r="Q319" s="2"/>
       <c r="R319" s="2"/>
     </row>
-    <row r="320" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -7272,7 +7313,7 @@
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
     </row>
-    <row r="321" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7292,7 +7333,7 @@
       <c r="Q321" s="2"/>
       <c r="R321" s="2"/>
     </row>
-    <row r="322" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7312,7 +7353,7 @@
       <c r="Q322" s="2"/>
       <c r="R322" s="2"/>
     </row>
-    <row r="323" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7332,7 +7373,7 @@
       <c r="Q323" s="2"/>
       <c r="R323" s="2"/>
     </row>
-    <row r="324" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7352,7 +7393,7 @@
       <c r="Q324" s="2"/>
       <c r="R324" s="2"/>
     </row>
-    <row r="325" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7372,7 +7413,7 @@
       <c r="Q325" s="2"/>
       <c r="R325" s="2"/>
     </row>
-    <row r="326" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7392,7 +7433,7 @@
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
     </row>
-    <row r="327" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7412,7 +7453,7 @@
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
     </row>
-    <row r="328" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7432,7 +7473,7 @@
       <c r="Q328" s="2"/>
       <c r="R328" s="2"/>
     </row>
-    <row r="329" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -7452,7 +7493,7 @@
       <c r="Q329" s="2"/>
       <c r="R329" s="2"/>
     </row>
-    <row r="330" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -7472,7 +7513,7 @@
       <c r="Q330" s="2"/>
       <c r="R330" s="2"/>
     </row>
-    <row r="331" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -7492,7 +7533,7 @@
       <c r="Q331" s="2"/>
       <c r="R331" s="2"/>
     </row>
-    <row r="332" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -7512,7 +7553,7 @@
       <c r="Q332" s="2"/>
       <c r="R332" s="2"/>
     </row>
-    <row r="333" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -7532,7 +7573,7 @@
       <c r="Q333" s="2"/>
       <c r="R333" s="2"/>
     </row>
-    <row r="334" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -7552,7 +7593,7 @@
       <c r="Q334" s="2"/>
       <c r="R334" s="2"/>
     </row>
-    <row r="335" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -7572,7 +7613,7 @@
       <c r="Q335" s="2"/>
       <c r="R335" s="2"/>
     </row>
-    <row r="336" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -7592,7 +7633,7 @@
       <c r="Q336" s="2"/>
       <c r="R336" s="2"/>
     </row>
-    <row r="337" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -7612,7 +7653,7 @@
       <c r="Q337" s="2"/>
       <c r="R337" s="2"/>
     </row>
-    <row r="338" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -7632,7 +7673,7 @@
       <c r="Q338" s="2"/>
       <c r="R338" s="2"/>
     </row>
-    <row r="339" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -7652,7 +7693,7 @@
       <c r="Q339" s="2"/>
       <c r="R339" s="2"/>
     </row>
-    <row r="340" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -7672,7 +7713,7 @@
       <c r="Q340" s="2"/>
       <c r="R340" s="2"/>
     </row>
-    <row r="341" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -7692,7 +7733,7 @@
       <c r="Q341" s="2"/>
       <c r="R341" s="2"/>
     </row>
-    <row r="342" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -7712,7 +7753,7 @@
       <c r="Q342" s="2"/>
       <c r="R342" s="2"/>
     </row>
-    <row r="343" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -7732,7 +7773,7 @@
       <c r="Q343" s="2"/>
       <c r="R343" s="2"/>
     </row>
-    <row r="344" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -7752,7 +7793,7 @@
       <c r="Q344" s="2"/>
       <c r="R344" s="2"/>
     </row>
-    <row r="345" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -7772,7 +7813,7 @@
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
     </row>
-    <row r="346" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -7792,7 +7833,7 @@
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
     </row>
-    <row r="347" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -7812,7 +7853,7 @@
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
     </row>
-    <row r="348" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -7832,7 +7873,7 @@
       <c r="Q348" s="2"/>
       <c r="R348" s="2"/>
     </row>
-    <row r="349" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -7852,7 +7893,7 @@
       <c r="Q349" s="2"/>
       <c r="R349" s="2"/>
     </row>
-    <row r="350" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -7872,7 +7913,7 @@
       <c r="Q350" s="2"/>
       <c r="R350" s="2"/>
     </row>
-    <row r="351" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -7892,7 +7933,7 @@
       <c r="Q351" s="2"/>
       <c r="R351" s="2"/>
     </row>
-    <row r="352" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -7912,7 +7953,7 @@
       <c r="Q352" s="2"/>
       <c r="R352" s="2"/>
     </row>
-    <row r="353" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -7932,7 +7973,7 @@
       <c r="Q353" s="2"/>
       <c r="R353" s="2"/>
     </row>
-    <row r="354" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -7952,7 +7993,7 @@
       <c r="Q354" s="2"/>
       <c r="R354" s="2"/>
     </row>
-    <row r="355" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -7972,7 +8013,7 @@
       <c r="Q355" s="2"/>
       <c r="R355" s="2"/>
     </row>
-    <row r="356" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -7992,7 +8033,7 @@
       <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
     </row>
-    <row r="357" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -8012,7 +8053,7 @@
       <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
     </row>
-    <row r="358" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -8032,7 +8073,7 @@
       <c r="Q358" s="2"/>
       <c r="R358" s="2"/>
     </row>
-    <row r="359" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -8052,7 +8093,7 @@
       <c r="Q359" s="2"/>
       <c r="R359" s="2"/>
     </row>
-    <row r="360" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -8072,7 +8113,7 @@
       <c r="Q360" s="2"/>
       <c r="R360" s="2"/>
     </row>
-    <row r="361" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -8092,7 +8133,7 @@
       <c r="Q361" s="2"/>
       <c r="R361" s="2"/>
     </row>
-    <row r="362" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -8112,7 +8153,7 @@
       <c r="Q362" s="2"/>
       <c r="R362" s="2"/>
     </row>
-    <row r="363" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -8132,7 +8173,7 @@
       <c r="Q363" s="2"/>
       <c r="R363" s="2"/>
     </row>
-    <row r="364" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -8152,7 +8193,7 @@
       <c r="Q364" s="2"/>
       <c r="R364" s="2"/>
     </row>
-    <row r="365" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -8172,7 +8213,7 @@
       <c r="Q365" s="2"/>
       <c r="R365" s="2"/>
     </row>
-    <row r="366" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -8192,7 +8233,7 @@
       <c r="Q366" s="2"/>
       <c r="R366" s="2"/>
     </row>
-    <row r="367" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -8212,7 +8253,7 @@
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
     </row>
-    <row r="368" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -8232,7 +8273,7 @@
       <c r="Q368" s="2"/>
       <c r="R368" s="2"/>
     </row>
-    <row r="369" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -8252,7 +8293,7 @@
       <c r="Q369" s="2"/>
       <c r="R369" s="2"/>
     </row>
-    <row r="370" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -8272,7 +8313,7 @@
       <c r="Q370" s="2"/>
       <c r="R370" s="2"/>
     </row>
-    <row r="371" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -8292,7 +8333,7 @@
       <c r="Q371" s="2"/>
       <c r="R371" s="2"/>
     </row>
-    <row r="372" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -8312,7 +8353,7 @@
       <c r="Q372" s="2"/>
       <c r="R372" s="2"/>
     </row>
-    <row r="373" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -8332,7 +8373,7 @@
       <c r="Q373" s="2"/>
       <c r="R373" s="2"/>
     </row>
-    <row r="374" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -8352,7 +8393,7 @@
       <c r="Q374" s="2"/>
       <c r="R374" s="2"/>
     </row>
-    <row r="375" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -8372,7 +8413,7 @@
       <c r="Q375" s="2"/>
       <c r="R375" s="2"/>
     </row>
-    <row r="376" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -8392,7 +8433,7 @@
       <c r="Q376" s="2"/>
       <c r="R376" s="2"/>
     </row>
-    <row r="377" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -8412,7 +8453,7 @@
       <c r="Q377" s="2"/>
       <c r="R377" s="2"/>
     </row>
-    <row r="378" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -8432,7 +8473,7 @@
       <c r="Q378" s="2"/>
       <c r="R378" s="2"/>
     </row>
-    <row r="379" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -8452,7 +8493,7 @@
       <c r="Q379" s="2"/>
       <c r="R379" s="2"/>
     </row>
-    <row r="380" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -8472,7 +8513,7 @@
       <c r="Q380" s="2"/>
       <c r="R380" s="2"/>
     </row>
-    <row r="381" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -8492,7 +8533,7 @@
       <c r="Q381" s="2"/>
       <c r="R381" s="2"/>
     </row>
-    <row r="382" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -8512,7 +8553,7 @@
       <c r="Q382" s="2"/>
       <c r="R382" s="2"/>
     </row>
-    <row r="383" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -8532,7 +8573,7 @@
       <c r="Q383" s="2"/>
       <c r="R383" s="2"/>
     </row>
-    <row r="384" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -8552,7 +8593,7 @@
       <c r="Q384" s="2"/>
       <c r="R384" s="2"/>
     </row>
-    <row r="385" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -8572,7 +8613,7 @@
       <c r="Q385" s="2"/>
       <c r="R385" s="2"/>
     </row>
-    <row r="386" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -8592,7 +8633,7 @@
       <c r="Q386" s="2"/>
       <c r="R386" s="2"/>
     </row>
-    <row r="387" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -8612,7 +8653,7 @@
       <c r="Q387" s="2"/>
       <c r="R387" s="2"/>
     </row>
-    <row r="388" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -8632,7 +8673,7 @@
       <c r="Q388" s="2"/>
       <c r="R388" s="2"/>
     </row>
-    <row r="389" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -8652,7 +8693,7 @@
       <c r="Q389" s="2"/>
       <c r="R389" s="2"/>
     </row>
-    <row r="390" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -8672,7 +8713,7 @@
       <c r="Q390" s="2"/>
       <c r="R390" s="2"/>
     </row>
-    <row r="391" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -8692,7 +8733,7 @@
       <c r="Q391" s="2"/>
       <c r="R391" s="2"/>
     </row>
-    <row r="392" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -8712,7 +8753,7 @@
       <c r="Q392" s="2"/>
       <c r="R392" s="2"/>
     </row>
-    <row r="393" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -8732,7 +8773,7 @@
       <c r="Q393" s="2"/>
       <c r="R393" s="2"/>
     </row>
-    <row r="394" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -8752,7 +8793,7 @@
       <c r="Q394" s="2"/>
       <c r="R394" s="2"/>
     </row>
-    <row r="395" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -8772,7 +8813,7 @@
       <c r="Q395" s="2"/>
       <c r="R395" s="2"/>
     </row>
-    <row r="396" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -8792,7 +8833,7 @@
       <c r="Q396" s="2"/>
       <c r="R396" s="2"/>
     </row>
-    <row r="397" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -8812,7 +8853,7 @@
       <c r="Q397" s="2"/>
       <c r="R397" s="2"/>
     </row>
-    <row r="398" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -8832,7 +8873,7 @@
       <c r="Q398" s="2"/>
       <c r="R398" s="2"/>
     </row>
-    <row r="399" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -8852,7 +8893,7 @@
       <c r="Q399" s="2"/>
       <c r="R399" s="2"/>
     </row>
-    <row r="400" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -8872,7 +8913,7 @@
       <c r="Q400" s="2"/>
       <c r="R400" s="2"/>
     </row>
-    <row r="401" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -8892,7 +8933,7 @@
       <c r="Q401" s="2"/>
       <c r="R401" s="2"/>
     </row>
-    <row r="402" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -8912,7 +8953,7 @@
       <c r="Q402" s="2"/>
       <c r="R402" s="2"/>
     </row>
-    <row r="403" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -8932,7 +8973,7 @@
       <c r="Q403" s="2"/>
       <c r="R403" s="2"/>
     </row>
-    <row r="404" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -8952,7 +8993,7 @@
       <c r="Q404" s="2"/>
       <c r="R404" s="2"/>
     </row>
-    <row r="405" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -8972,7 +9013,7 @@
       <c r="Q405" s="2"/>
       <c r="R405" s="2"/>
     </row>
-    <row r="406" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -8992,7 +9033,7 @@
       <c r="Q406" s="2"/>
       <c r="R406" s="2"/>
     </row>
-    <row r="407" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -9012,7 +9053,7 @@
       <c r="Q407" s="2"/>
       <c r="R407" s="2"/>
     </row>
-    <row r="408" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -9032,7 +9073,7 @@
       <c r="Q408" s="2"/>
       <c r="R408" s="2"/>
     </row>
-    <row r="409" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -9052,7 +9093,7 @@
       <c r="Q409" s="2"/>
       <c r="R409" s="2"/>
     </row>
-    <row r="410" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -9072,7 +9113,7 @@
       <c r="Q410" s="2"/>
       <c r="R410" s="2"/>
     </row>
-    <row r="411" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -9092,7 +9133,7 @@
       <c r="Q411" s="2"/>
       <c r="R411" s="2"/>
     </row>
-    <row r="412" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -9112,7 +9153,7 @@
       <c r="Q412" s="2"/>
       <c r="R412" s="2"/>
     </row>
-    <row r="413" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -9132,7 +9173,7 @@
       <c r="Q413" s="2"/>
       <c r="R413" s="2"/>
     </row>
-    <row r="414" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -9152,7 +9193,7 @@
       <c r="Q414" s="2"/>
       <c r="R414" s="2"/>
     </row>
-    <row r="415" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -9172,7 +9213,7 @@
       <c r="Q415" s="2"/>
       <c r="R415" s="2"/>
     </row>
-    <row r="416" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -9192,7 +9233,7 @@
       <c r="Q416" s="2"/>
       <c r="R416" s="2"/>
     </row>
-    <row r="417" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -9212,7 +9253,7 @@
       <c r="Q417" s="2"/>
       <c r="R417" s="2"/>
     </row>
-    <row r="418" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -9232,7 +9273,7 @@
       <c r="Q418" s="2"/>
       <c r="R418" s="2"/>
     </row>
-    <row r="419" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -9252,7 +9293,7 @@
       <c r="Q419" s="2"/>
       <c r="R419" s="2"/>
     </row>
-    <row r="420" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -9272,7 +9313,7 @@
       <c r="Q420" s="2"/>
       <c r="R420" s="2"/>
     </row>
-    <row r="421" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -9292,7 +9333,7 @@
       <c r="Q421" s="2"/>
       <c r="R421" s="2"/>
     </row>
-    <row r="422" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -9312,7 +9353,7 @@
       <c r="Q422" s="2"/>
       <c r="R422" s="2"/>
     </row>
-    <row r="423" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -9332,7 +9373,7 @@
       <c r="Q423" s="2"/>
       <c r="R423" s="2"/>
     </row>
-    <row r="424" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -9352,7 +9393,7 @@
       <c r="Q424" s="2"/>
       <c r="R424" s="2"/>
     </row>
-    <row r="425" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -9372,7 +9413,7 @@
       <c r="Q425" s="2"/>
       <c r="R425" s="2"/>
     </row>
-    <row r="426" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -9392,7 +9433,7 @@
       <c r="Q426" s="2"/>
       <c r="R426" s="2"/>
     </row>
-    <row r="427" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -9412,7 +9453,7 @@
       <c r="Q427" s="2"/>
       <c r="R427" s="2"/>
     </row>
-    <row r="428" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -9432,7 +9473,7 @@
       <c r="Q428" s="2"/>
       <c r="R428" s="2"/>
     </row>
-    <row r="429" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -9452,7 +9493,7 @@
       <c r="Q429" s="2"/>
       <c r="R429" s="2"/>
     </row>
-    <row r="430" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -9472,7 +9513,7 @@
       <c r="Q430" s="2"/>
       <c r="R430" s="2"/>
     </row>
-    <row r="431" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -9492,7 +9533,7 @@
       <c r="Q431" s="2"/>
       <c r="R431" s="2"/>
     </row>
-    <row r="432" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -9512,7 +9553,7 @@
       <c r="Q432" s="2"/>
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -9532,7 +9573,7 @@
       <c r="Q433" s="2"/>
       <c r="R433" s="2"/>
     </row>
-    <row r="434" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -9552,7 +9593,7 @@
       <c r="Q434" s="2"/>
       <c r="R434" s="2"/>
     </row>
-    <row r="435" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -9572,7 +9613,7 @@
       <c r="Q435" s="2"/>
       <c r="R435" s="2"/>
     </row>
-    <row r="436" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -9592,7 +9633,7 @@
       <c r="Q436" s="2"/>
       <c r="R436" s="2"/>
     </row>
-    <row r="437" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -9612,7 +9653,7 @@
       <c r="Q437" s="2"/>
       <c r="R437" s="2"/>
     </row>
-    <row r="438" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -9632,7 +9673,7 @@
       <c r="Q438" s="2"/>
       <c r="R438" s="2"/>
     </row>
-    <row r="439" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -9652,7 +9693,7 @@
       <c r="Q439" s="2"/>
       <c r="R439" s="2"/>
     </row>
-    <row r="440" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -9672,7 +9713,7 @@
       <c r="Q440" s="2"/>
       <c r="R440" s="2"/>
     </row>
-    <row r="441" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -9692,7 +9733,7 @@
       <c r="Q441" s="2"/>
       <c r="R441" s="2"/>
     </row>
-    <row r="442" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -9712,7 +9753,7 @@
       <c r="Q442" s="2"/>
       <c r="R442" s="2"/>
     </row>
-    <row r="443" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -9732,7 +9773,7 @@
       <c r="Q443" s="2"/>
       <c r="R443" s="2"/>
     </row>
-    <row r="444" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -9752,7 +9793,7 @@
       <c r="Q444" s="2"/>
       <c r="R444" s="2"/>
     </row>
-    <row r="445" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -9772,7 +9813,7 @@
       <c r="Q445" s="2"/>
       <c r="R445" s="2"/>
     </row>
-    <row r="446" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -9792,7 +9833,7 @@
       <c r="Q446" s="2"/>
       <c r="R446" s="2"/>
     </row>
-    <row r="447" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -9812,7 +9853,7 @@
       <c r="Q447" s="2"/>
       <c r="R447" s="2"/>
     </row>
-    <row r="448" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -9832,7 +9873,7 @@
       <c r="Q448" s="2"/>
       <c r="R448" s="2"/>
     </row>
-    <row r="449" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -9852,7 +9893,7 @@
       <c r="Q449" s="2"/>
       <c r="R449" s="2"/>
     </row>
-    <row r="450" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -9872,7 +9913,7 @@
       <c r="Q450" s="2"/>
       <c r="R450" s="2"/>
     </row>
-    <row r="451" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -9892,7 +9933,7 @@
       <c r="Q451" s="2"/>
       <c r="R451" s="2"/>
     </row>
-    <row r="452" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -9912,7 +9953,7 @@
       <c r="Q452" s="2"/>
       <c r="R452" s="2"/>
     </row>
-    <row r="453" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -9932,7 +9973,7 @@
       <c r="Q453" s="2"/>
       <c r="R453" s="2"/>
     </row>
-    <row r="454" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -9952,7 +9993,7 @@
       <c r="Q454" s="2"/>
       <c r="R454" s="2"/>
     </row>
-    <row r="455" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -9972,7 +10013,7 @@
       <c r="Q455" s="2"/>
       <c r="R455" s="2"/>
     </row>
-    <row r="456" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -9992,7 +10033,7 @@
       <c r="Q456" s="2"/>
       <c r="R456" s="2"/>
     </row>
-    <row r="457" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -10012,7 +10053,7 @@
       <c r="Q457" s="2"/>
       <c r="R457" s="2"/>
     </row>
-    <row r="458" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -10032,7 +10073,7 @@
       <c r="Q458" s="2"/>
       <c r="R458" s="2"/>
     </row>
-    <row r="459" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -10052,7 +10093,7 @@
       <c r="Q459" s="2"/>
       <c r="R459" s="2"/>
     </row>
-    <row r="460" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -10072,7 +10113,7 @@
       <c r="Q460" s="2"/>
       <c r="R460" s="2"/>
     </row>
-    <row r="461" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -10092,7 +10133,7 @@
       <c r="Q461" s="2"/>
       <c r="R461" s="2"/>
     </row>
-    <row r="462" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -10112,7 +10153,7 @@
       <c r="Q462" s="2"/>
       <c r="R462" s="2"/>
     </row>
-    <row r="463" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -10132,7 +10173,7 @@
       <c r="Q463" s="2"/>
       <c r="R463" s="2"/>
     </row>
-    <row r="464" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -10152,7 +10193,7 @@
       <c r="Q464" s="2"/>
       <c r="R464" s="2"/>
     </row>
-    <row r="465" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -10172,7 +10213,7 @@
       <c r="Q465" s="2"/>
       <c r="R465" s="2"/>
     </row>
-    <row r="466" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -10192,7 +10233,7 @@
       <c r="Q466" s="2"/>
       <c r="R466" s="2"/>
     </row>
-    <row r="467" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -10212,7 +10253,7 @@
       <c r="Q467" s="2"/>
       <c r="R467" s="2"/>
     </row>
-    <row r="468" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -10232,7 +10273,7 @@
       <c r="Q468" s="2"/>
       <c r="R468" s="2"/>
     </row>
-    <row r="469" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -10252,7 +10293,7 @@
       <c r="Q469" s="2"/>
       <c r="R469" s="2"/>
     </row>
-    <row r="470" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -10272,7 +10313,7 @@
       <c r="Q470" s="2"/>
       <c r="R470" s="2"/>
     </row>
-    <row r="471" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -10292,7 +10333,7 @@
       <c r="Q471" s="2"/>
       <c r="R471" s="2"/>
     </row>
-    <row r="472" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -10312,7 +10353,7 @@
       <c r="Q472" s="2"/>
       <c r="R472" s="2"/>
     </row>
-    <row r="473" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -10332,7 +10373,7 @@
       <c r="Q473" s="2"/>
       <c r="R473" s="2"/>
     </row>
-    <row r="474" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -10352,7 +10393,7 @@
       <c r="Q474" s="2"/>
       <c r="R474" s="2"/>
     </row>
-    <row r="475" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -10372,7 +10413,7 @@
       <c r="Q475" s="2"/>
       <c r="R475" s="2"/>
     </row>
-    <row r="476" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -10392,7 +10433,7 @@
       <c r="Q476" s="2"/>
       <c r="R476" s="2"/>
     </row>
-    <row r="477" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -10412,7 +10453,7 @@
       <c r="Q477" s="2"/>
       <c r="R477" s="2"/>
     </row>
-    <row r="478" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -10432,7 +10473,7 @@
       <c r="Q478" s="2"/>
       <c r="R478" s="2"/>
     </row>
-    <row r="479" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -10452,7 +10493,7 @@
       <c r="Q479" s="2"/>
       <c r="R479" s="2"/>
     </row>
-    <row r="480" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -10472,7 +10513,7 @@
       <c r="Q480" s="2"/>
       <c r="R480" s="2"/>
     </row>
-    <row r="481" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -10492,7 +10533,7 @@
       <c r="Q481" s="2"/>
       <c r="R481" s="2"/>
     </row>
-    <row r="482" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -10512,7 +10553,7 @@
       <c r="Q482" s="2"/>
       <c r="R482" s="2"/>
     </row>
-    <row r="483" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -10532,7 +10573,7 @@
       <c r="Q483" s="2"/>
       <c r="R483" s="2"/>
     </row>
-    <row r="484" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -10552,7 +10593,7 @@
       <c r="Q484" s="2"/>
       <c r="R484" s="2"/>
     </row>
-    <row r="485" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -10572,7 +10613,7 @@
       <c r="Q485" s="2"/>
       <c r="R485" s="2"/>
     </row>
-    <row r="486" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -10592,7 +10633,7 @@
       <c r="Q486" s="2"/>
       <c r="R486" s="2"/>
     </row>
-    <row r="487" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -10612,7 +10653,7 @@
       <c r="Q487" s="2"/>
       <c r="R487" s="2"/>
     </row>
-    <row r="488" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -10632,7 +10673,7 @@
       <c r="Q488" s="2"/>
       <c r="R488" s="2"/>
     </row>
-    <row r="489" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -10652,7 +10693,7 @@
       <c r="Q489" s="2"/>
       <c r="R489" s="2"/>
     </row>
-    <row r="490" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -10672,7 +10713,7 @@
       <c r="Q490" s="2"/>
       <c r="R490" s="2"/>
     </row>
-    <row r="491" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -10692,7 +10733,7 @@
       <c r="Q491" s="2"/>
       <c r="R491" s="2"/>
     </row>
-    <row r="492" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -10712,7 +10753,7 @@
       <c r="Q492" s="2"/>
       <c r="R492" s="2"/>
     </row>
-    <row r="493" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -10732,7 +10773,7 @@
       <c r="Q493" s="2"/>
       <c r="R493" s="2"/>
     </row>
-    <row r="494" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -10752,7 +10793,7 @@
       <c r="Q494" s="2"/>
       <c r="R494" s="2"/>
     </row>
-    <row r="495" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -10772,7 +10813,7 @@
       <c r="Q495" s="2"/>
       <c r="R495" s="2"/>
     </row>
-    <row r="496" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -10792,7 +10833,7 @@
       <c r="Q496" s="2"/>
       <c r="R496" s="2"/>
     </row>
-    <row r="497" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -10812,7 +10853,7 @@
       <c r="Q497" s="2"/>
       <c r="R497" s="2"/>
     </row>
-    <row r="498" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -10832,7 +10873,7 @@
       <c r="Q498" s="2"/>
       <c r="R498" s="2"/>
     </row>
-    <row r="499" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -10852,7 +10893,7 @@
       <c r="Q499" s="2"/>
       <c r="R499" s="2"/>
     </row>
-    <row r="500" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -10872,7 +10913,7 @@
       <c r="Q500" s="2"/>
       <c r="R500" s="2"/>
     </row>
-    <row r="501" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -10892,7 +10933,7 @@
       <c r="Q501" s="2"/>
       <c r="R501" s="2"/>
     </row>
-    <row r="502" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -10912,7 +10953,7 @@
       <c r="Q502" s="2"/>
       <c r="R502" s="2"/>
     </row>
-    <row r="503" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -10932,7 +10973,7 @@
       <c r="Q503" s="2"/>
       <c r="R503" s="2"/>
     </row>
-    <row r="504" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -10952,7 +10993,7 @@
       <c r="Q504" s="2"/>
       <c r="R504" s="2"/>
     </row>
-    <row r="505" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -10972,7 +11013,7 @@
       <c r="Q505" s="2"/>
       <c r="R505" s="2"/>
     </row>
-    <row r="506" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -10992,7 +11033,7 @@
       <c r="Q506" s="2"/>
       <c r="R506" s="2"/>
     </row>
-    <row r="507" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -11012,7 +11053,7 @@
       <c r="Q507" s="2"/>
       <c r="R507" s="2"/>
     </row>
-    <row r="508" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -11032,7 +11073,7 @@
       <c r="Q508" s="2"/>
       <c r="R508" s="2"/>
     </row>
-    <row r="509" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -11052,7 +11093,7 @@
       <c r="Q509" s="2"/>
       <c r="R509" s="2"/>
     </row>
-    <row r="510" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -11072,7 +11113,7 @@
       <c r="Q510" s="2"/>
       <c r="R510" s="2"/>
     </row>
-    <row r="511" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -11092,7 +11133,7 @@
       <c r="Q511" s="2"/>
       <c r="R511" s="2"/>
     </row>
-    <row r="512" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -11112,7 +11153,7 @@
       <c r="Q512" s="2"/>
       <c r="R512" s="2"/>
     </row>
-    <row r="513" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -11132,7 +11173,7 @@
       <c r="Q513" s="2"/>
       <c r="R513" s="2"/>
     </row>
-    <row r="514" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -11152,7 +11193,7 @@
       <c r="Q514" s="2"/>
       <c r="R514" s="2"/>
     </row>
-    <row r="515" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -11172,7 +11213,7 @@
       <c r="Q515" s="2"/>
       <c r="R515" s="2"/>
     </row>
-    <row r="516" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -11192,7 +11233,7 @@
       <c r="Q516" s="2"/>
       <c r="R516" s="2"/>
     </row>
-    <row r="517" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -11212,7 +11253,7 @@
       <c r="Q517" s="2"/>
       <c r="R517" s="2"/>
     </row>
-    <row r="518" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -11232,7 +11273,7 @@
       <c r="Q518" s="2"/>
       <c r="R518" s="2"/>
     </row>
-    <row r="519" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -11252,7 +11293,7 @@
       <c r="Q519" s="2"/>
       <c r="R519" s="2"/>
     </row>
-    <row r="520" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -11272,7 +11313,7 @@
       <c r="Q520" s="2"/>
       <c r="R520" s="2"/>
     </row>
-    <row r="521" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -11292,7 +11333,7 @@
       <c r="Q521" s="2"/>
       <c r="R521" s="2"/>
     </row>
-    <row r="522" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -11312,7 +11353,7 @@
       <c r="Q522" s="2"/>
       <c r="R522" s="2"/>
     </row>
-    <row r="523" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -11332,7 +11373,7 @@
       <c r="Q523" s="2"/>
       <c r="R523" s="2"/>
     </row>
-    <row r="524" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -11352,7 +11393,7 @@
       <c r="Q524" s="2"/>
       <c r="R524" s="2"/>
     </row>
-    <row r="525" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -11372,7 +11413,7 @@
       <c r="Q525" s="2"/>
       <c r="R525" s="2"/>
     </row>
-    <row r="526" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -11392,7 +11433,7 @@
       <c r="Q526" s="2"/>
       <c r="R526" s="2"/>
     </row>
-    <row r="527" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -11412,7 +11453,7 @@
       <c r="Q527" s="2"/>
       <c r="R527" s="2"/>
     </row>
-    <row r="528" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -11432,7 +11473,7 @@
       <c r="Q528" s="2"/>
       <c r="R528" s="2"/>
     </row>
-    <row r="529" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -11452,7 +11493,7 @@
       <c r="Q529" s="2"/>
       <c r="R529" s="2"/>
     </row>
-    <row r="530" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -11472,7 +11513,7 @@
       <c r="Q530" s="2"/>
       <c r="R530" s="2"/>
     </row>
-    <row r="531" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -11492,7 +11533,7 @@
       <c r="Q531" s="2"/>
       <c r="R531" s="2"/>
     </row>
-    <row r="532" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -11512,7 +11553,7 @@
       <c r="Q532" s="2"/>
       <c r="R532" s="2"/>
     </row>
-    <row r="533" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -11532,7 +11573,7 @@
       <c r="Q533" s="2"/>
       <c r="R533" s="2"/>
     </row>
-    <row r="534" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -11552,7 +11593,7 @@
       <c r="Q534" s="2"/>
       <c r="R534" s="2"/>
     </row>
-    <row r="535" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -11572,7 +11613,7 @@
       <c r="Q535" s="2"/>
       <c r="R535" s="2"/>
     </row>
-    <row r="536" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -11592,7 +11633,7 @@
       <c r="Q536" s="2"/>
       <c r="R536" s="2"/>
     </row>
-    <row r="537" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -11612,7 +11653,7 @@
       <c r="Q537" s="2"/>
       <c r="R537" s="2"/>
     </row>
-    <row r="538" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -11632,7 +11673,7 @@
       <c r="Q538" s="2"/>
       <c r="R538" s="2"/>
     </row>
-    <row r="539" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -11652,7 +11693,7 @@
       <c r="Q539" s="2"/>
       <c r="R539" s="2"/>
     </row>
-    <row r="540" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -11672,7 +11713,7 @@
       <c r="Q540" s="2"/>
       <c r="R540" s="2"/>
     </row>
-    <row r="541" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -11692,7 +11733,7 @@
       <c r="Q541" s="2"/>
       <c r="R541" s="2"/>
     </row>
-    <row r="542" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -11712,7 +11753,7 @@
       <c r="Q542" s="2"/>
       <c r="R542" s="2"/>
     </row>
-    <row r="543" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -11732,7 +11773,7 @@
       <c r="Q543" s="2"/>
       <c r="R543" s="2"/>
     </row>
-    <row r="544" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -11752,7 +11793,7 @@
       <c r="Q544" s="2"/>
       <c r="R544" s="2"/>
     </row>
-    <row r="545" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -11772,7 +11813,7 @@
       <c r="Q545" s="2"/>
       <c r="R545" s="2"/>
     </row>
-    <row r="546" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -11792,7 +11833,7 @@
       <c r="Q546" s="2"/>
       <c r="R546" s="2"/>
     </row>
-    <row r="547" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -11812,7 +11853,7 @@
       <c r="Q547" s="2"/>
       <c r="R547" s="2"/>
     </row>
-    <row r="548" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -11832,7 +11873,7 @@
       <c r="Q548" s="2"/>
       <c r="R548" s="2"/>
     </row>
-    <row r="549" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -11852,7 +11893,7 @@
       <c r="Q549" s="2"/>
       <c r="R549" s="2"/>
     </row>
-    <row r="550" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -11872,7 +11913,7 @@
       <c r="Q550" s="2"/>
       <c r="R550" s="2"/>
     </row>
-    <row r="551" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -11892,7 +11933,7 @@
       <c r="Q551" s="2"/>
       <c r="R551" s="2"/>
     </row>
-    <row r="552" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -11912,7 +11953,7 @@
       <c r="Q552" s="2"/>
       <c r="R552" s="2"/>
     </row>
-    <row r="553" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -11932,7 +11973,7 @@
       <c r="Q553" s="2"/>
       <c r="R553" s="2"/>
     </row>
-    <row r="554" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -11952,7 +11993,7 @@
       <c r="Q554" s="2"/>
       <c r="R554" s="2"/>
     </row>
-    <row r="555" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -11972,7 +12013,7 @@
       <c r="Q555" s="2"/>
       <c r="R555" s="2"/>
     </row>
-    <row r="556" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -11992,7 +12033,7 @@
       <c r="Q556" s="2"/>
       <c r="R556" s="2"/>
     </row>
-    <row r="557" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -12012,7 +12053,7 @@
       <c r="Q557" s="2"/>
       <c r="R557" s="2"/>
     </row>
-    <row r="558" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -12032,7 +12073,7 @@
       <c r="Q558" s="2"/>
       <c r="R558" s="2"/>
     </row>
-    <row r="559" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -12052,7 +12093,7 @@
       <c r="Q559" s="2"/>
       <c r="R559" s="2"/>
     </row>
-    <row r="560" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -12072,7 +12113,7 @@
       <c r="Q560" s="2"/>
       <c r="R560" s="2"/>
     </row>
-    <row r="561" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -12092,7 +12133,7 @@
       <c r="Q561" s="2"/>
       <c r="R561" s="2"/>
     </row>
-    <row r="562" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -12112,7 +12153,7 @@
       <c r="Q562" s="2"/>
       <c r="R562" s="2"/>
     </row>
-    <row r="563" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -12132,7 +12173,7 @@
       <c r="Q563" s="2"/>
       <c r="R563" s="2"/>
     </row>
-    <row r="564" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -12152,7 +12193,7 @@
       <c r="Q564" s="2"/>
       <c r="R564" s="2"/>
     </row>
-    <row r="565" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -12172,7 +12213,7 @@
       <c r="Q565" s="2"/>
       <c r="R565" s="2"/>
     </row>
-    <row r="566" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -12192,7 +12233,7 @@
       <c r="Q566" s="2"/>
       <c r="R566" s="2"/>
     </row>
-    <row r="567" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -12212,7 +12253,7 @@
       <c r="Q567" s="2"/>
       <c r="R567" s="2"/>
     </row>
-    <row r="568" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -12232,7 +12273,7 @@
       <c r="Q568" s="2"/>
       <c r="R568" s="2"/>
     </row>
-    <row r="569" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -12252,7 +12293,7 @@
       <c r="Q569" s="2"/>
       <c r="R569" s="2"/>
     </row>
-    <row r="570" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -12272,7 +12313,7 @@
       <c r="Q570" s="2"/>
       <c r="R570" s="2"/>
     </row>
-    <row r="571" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -12292,7 +12333,7 @@
       <c r="Q571" s="2"/>
       <c r="R571" s="2"/>
     </row>
-    <row r="572" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -12312,7 +12353,7 @@
       <c r="Q572" s="2"/>
       <c r="R572" s="2"/>
     </row>
-    <row r="573" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -12332,7 +12373,7 @@
       <c r="Q573" s="2"/>
       <c r="R573" s="2"/>
     </row>
-    <row r="574" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -12352,7 +12393,7 @@
       <c r="Q574" s="2"/>
       <c r="R574" s="2"/>
     </row>
-    <row r="575" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -12372,7 +12413,7 @@
       <c r="Q575" s="2"/>
       <c r="R575" s="2"/>
     </row>
-    <row r="576" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -12392,7 +12433,7 @@
       <c r="Q576" s="2"/>
       <c r="R576" s="2"/>
     </row>
-    <row r="577" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -12412,7 +12453,7 @@
       <c r="Q577" s="2"/>
       <c r="R577" s="2"/>
     </row>
-    <row r="578" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -12432,7 +12473,7 @@
       <c r="Q578" s="2"/>
       <c r="R578" s="2"/>
     </row>
-    <row r="579" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -12452,7 +12493,7 @@
       <c r="Q579" s="2"/>
       <c r="R579" s="2"/>
     </row>
-    <row r="580" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -12472,7 +12513,7 @@
       <c r="Q580" s="2"/>
       <c r="R580" s="2"/>
     </row>
-    <row r="581" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -12492,7 +12533,7 @@
       <c r="Q581" s="2"/>
       <c r="R581" s="2"/>
     </row>
-    <row r="582" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -12512,7 +12553,7 @@
       <c r="Q582" s="2"/>
       <c r="R582" s="2"/>
     </row>
-    <row r="583" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -12532,7 +12573,7 @@
       <c r="Q583" s="2"/>
       <c r="R583" s="2"/>
     </row>
-    <row r="584" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -12552,7 +12593,7 @@
       <c r="Q584" s="2"/>
       <c r="R584" s="2"/>
     </row>
-    <row r="585" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -12572,7 +12613,7 @@
       <c r="Q585" s="2"/>
       <c r="R585" s="2"/>
     </row>
-    <row r="586" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -12592,7 +12633,7 @@
       <c r="Q586" s="2"/>
       <c r="R586" s="2"/>
     </row>
-    <row r="587" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -12612,7 +12653,7 @@
       <c r="Q587" s="2"/>
       <c r="R587" s="2"/>
     </row>
-    <row r="588" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -12632,7 +12673,7 @@
       <c r="Q588" s="2"/>
       <c r="R588" s="2"/>
     </row>
-    <row r="589" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -12652,7 +12693,7 @@
       <c r="Q589" s="2"/>
       <c r="R589" s="2"/>
     </row>
-    <row r="590" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -12672,7 +12713,7 @@
       <c r="Q590" s="2"/>
       <c r="R590" s="2"/>
     </row>
-    <row r="591" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -12692,7 +12733,7 @@
       <c r="Q591" s="2"/>
       <c r="R591" s="2"/>
     </row>
-    <row r="592" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -12712,7 +12753,7 @@
       <c r="Q592" s="2"/>
       <c r="R592" s="2"/>
     </row>
-    <row r="593" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -12732,7 +12773,7 @@
       <c r="Q593" s="2"/>
       <c r="R593" s="2"/>
     </row>
-    <row r="594" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -12752,7 +12793,7 @@
       <c r="Q594" s="2"/>
       <c r="R594" s="2"/>
     </row>
-    <row r="595" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -12772,7 +12813,7 @@
       <c r="Q595" s="2"/>
       <c r="R595" s="2"/>
     </row>
-    <row r="596" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -12792,7 +12833,7 @@
       <c r="Q596" s="2"/>
       <c r="R596" s="2"/>
     </row>
-    <row r="597" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -12812,7 +12853,7 @@
       <c r="Q597" s="2"/>
       <c r="R597" s="2"/>
     </row>
-    <row r="598" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -12832,7 +12873,7 @@
       <c r="Q598" s="2"/>
       <c r="R598" s="2"/>
     </row>
-    <row r="599" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -12852,7 +12893,7 @@
       <c r="Q599" s="2"/>
       <c r="R599" s="2"/>
     </row>
-    <row r="600" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -12872,7 +12913,7 @@
       <c r="Q600" s="2"/>
       <c r="R600" s="2"/>
     </row>
-    <row r="601" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -12892,7 +12933,7 @@
       <c r="Q601" s="2"/>
       <c r="R601" s="2"/>
     </row>
-    <row r="602" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -12912,7 +12953,7 @@
       <c r="Q602" s="2"/>
       <c r="R602" s="2"/>
     </row>
-    <row r="603" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -12932,7 +12973,7 @@
       <c r="Q603" s="2"/>
       <c r="R603" s="2"/>
     </row>
-    <row r="604" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -12952,7 +12993,7 @@
       <c r="Q604" s="2"/>
       <c r="R604" s="2"/>
     </row>
-    <row r="605" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -12972,7 +13013,7 @@
       <c r="Q605" s="2"/>
       <c r="R605" s="2"/>
     </row>
-    <row r="606" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -12992,7 +13033,7 @@
       <c r="Q606" s="2"/>
       <c r="R606" s="2"/>
     </row>
-    <row r="607" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -13012,7 +13053,7 @@
       <c r="Q607" s="2"/>
       <c r="R607" s="2"/>
     </row>
-    <row r="608" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -13032,7 +13073,7 @@
       <c r="Q608" s="2"/>
       <c r="R608" s="2"/>
     </row>
-    <row r="609" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -13052,7 +13093,7 @@
       <c r="Q609" s="2"/>
       <c r="R609" s="2"/>
     </row>
-    <row r="610" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -13072,7 +13113,7 @@
       <c r="Q610" s="2"/>
       <c r="R610" s="2"/>
     </row>
-    <row r="611" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -13092,7 +13133,7 @@
       <c r="Q611" s="2"/>
       <c r="R611" s="2"/>
     </row>
-    <row r="612" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -13112,7 +13153,7 @@
       <c r="Q612" s="2"/>
       <c r="R612" s="2"/>
     </row>
-    <row r="613" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -13132,7 +13173,7 @@
       <c r="Q613" s="2"/>
       <c r="R613" s="2"/>
     </row>
-    <row r="614" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -13152,7 +13193,7 @@
       <c r="Q614" s="2"/>
       <c r="R614" s="2"/>
     </row>
-    <row r="615" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -13172,7 +13213,7 @@
       <c r="Q615" s="2"/>
       <c r="R615" s="2"/>
     </row>
-    <row r="616" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -13192,7 +13233,7 @@
       <c r="Q616" s="2"/>
       <c r="R616" s="2"/>
     </row>
-    <row r="617" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -13212,7 +13253,7 @@
       <c r="Q617" s="2"/>
       <c r="R617" s="2"/>
     </row>
-    <row r="618" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -13232,7 +13273,7 @@
       <c r="Q618" s="2"/>
       <c r="R618" s="2"/>
     </row>
-    <row r="619" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -13252,7 +13293,7 @@
       <c r="Q619" s="2"/>
       <c r="R619" s="2"/>
     </row>
-    <row r="620" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -13272,7 +13313,7 @@
       <c r="Q620" s="2"/>
       <c r="R620" s="2"/>
     </row>
-    <row r="621" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -13292,7 +13333,7 @@
       <c r="Q621" s="2"/>
       <c r="R621" s="2"/>
     </row>
-    <row r="622" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -13312,7 +13353,7 @@
       <c r="Q622" s="2"/>
       <c r="R622" s="2"/>
     </row>
-    <row r="623" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -13332,7 +13373,7 @@
       <c r="Q623" s="2"/>
       <c r="R623" s="2"/>
     </row>
-    <row r="624" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -13352,7 +13393,7 @@
       <c r="Q624" s="2"/>
       <c r="R624" s="2"/>
     </row>
-    <row r="625" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -13372,7 +13413,7 @@
       <c r="Q625" s="2"/>
       <c r="R625" s="2"/>
     </row>
-    <row r="626" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -13392,7 +13433,7 @@
       <c r="Q626" s="2"/>
       <c r="R626" s="2"/>
     </row>
-    <row r="627" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -13412,7 +13453,7 @@
       <c r="Q627" s="2"/>
       <c r="R627" s="2"/>
     </row>
-    <row r="628" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -13432,7 +13473,7 @@
       <c r="Q628" s="2"/>
       <c r="R628" s="2"/>
     </row>
-    <row r="629" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -13452,7 +13493,7 @@
       <c r="Q629" s="2"/>
       <c r="R629" s="2"/>
     </row>
-    <row r="630" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -13472,7 +13513,7 @@
       <c r="Q630" s="2"/>
       <c r="R630" s="2"/>
     </row>
-    <row r="631" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -13492,7 +13533,7 @@
       <c r="Q631" s="2"/>
       <c r="R631" s="2"/>
     </row>
-    <row r="632" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -13512,7 +13553,7 @@
       <c r="Q632" s="2"/>
       <c r="R632" s="2"/>
     </row>
-    <row r="633" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -13532,7 +13573,7 @@
       <c r="Q633" s="2"/>
       <c r="R633" s="2"/>
     </row>
-    <row r="634" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -13552,7 +13593,7 @@
       <c r="Q634" s="2"/>
       <c r="R634" s="2"/>
     </row>
-    <row r="635" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -13572,7 +13613,7 @@
       <c r="Q635" s="2"/>
       <c r="R635" s="2"/>
     </row>
-    <row r="636" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -13592,7 +13633,7 @@
       <c r="Q636" s="2"/>
       <c r="R636" s="2"/>
     </row>
-    <row r="637" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -13612,7 +13653,7 @@
       <c r="Q637" s="2"/>
       <c r="R637" s="2"/>
     </row>
-    <row r="638" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -13632,7 +13673,7 @@
       <c r="Q638" s="2"/>
       <c r="R638" s="2"/>
     </row>
-    <row r="639" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -13652,7 +13693,7 @@
       <c r="Q639" s="2"/>
       <c r="R639" s="2"/>
     </row>
-    <row r="640" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -13672,7 +13713,7 @@
       <c r="Q640" s="2"/>
       <c r="R640" s="2"/>
     </row>
-    <row r="641" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -13692,7 +13733,7 @@
       <c r="Q641" s="2"/>
       <c r="R641" s="2"/>
     </row>
-    <row r="642" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -13712,7 +13753,7 @@
       <c r="Q642" s="2"/>
       <c r="R642" s="2"/>
     </row>
-    <row r="643" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -13732,7 +13773,7 @@
       <c r="Q643" s="2"/>
       <c r="R643" s="2"/>
     </row>
-    <row r="644" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -13752,7 +13793,7 @@
       <c r="Q644" s="2"/>
       <c r="R644" s="2"/>
     </row>
-    <row r="645" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -13772,7 +13813,7 @@
       <c r="Q645" s="2"/>
       <c r="R645" s="2"/>
     </row>
-    <row r="646" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -13792,7 +13833,7 @@
       <c r="Q646" s="2"/>
       <c r="R646" s="2"/>
     </row>
-    <row r="647" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -13812,7 +13853,7 @@
       <c r="Q647" s="2"/>
       <c r="R647" s="2"/>
     </row>
-    <row r="648" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -13832,7 +13873,7 @@
       <c r="Q648" s="2"/>
       <c r="R648" s="2"/>
     </row>
-    <row r="649" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -13852,7 +13893,7 @@
       <c r="Q649" s="2"/>
       <c r="R649" s="2"/>
     </row>
-    <row r="650" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -13872,7 +13913,7 @@
       <c r="Q650" s="2"/>
       <c r="R650" s="2"/>
     </row>
-    <row r="651" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -13892,7 +13933,7 @@
       <c r="Q651" s="2"/>
       <c r="R651" s="2"/>
     </row>
-    <row r="652" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -13912,7 +13953,7 @@
       <c r="Q652" s="2"/>
       <c r="R652" s="2"/>
     </row>
-    <row r="653" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -13932,7 +13973,7 @@
       <c r="Q653" s="2"/>
       <c r="R653" s="2"/>
     </row>
-    <row r="654" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -13952,7 +13993,7 @@
       <c r="Q654" s="2"/>
       <c r="R654" s="2"/>
     </row>
-    <row r="655" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -13972,7 +14013,7 @@
       <c r="Q655" s="2"/>
       <c r="R655" s="2"/>
     </row>
-    <row r="656" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -13992,7 +14033,7 @@
       <c r="Q656" s="2"/>
       <c r="R656" s="2"/>
     </row>
-    <row r="657" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -14012,7 +14053,7 @@
       <c r="Q657" s="2"/>
       <c r="R657" s="2"/>
     </row>
-    <row r="658" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -14032,7 +14073,7 @@
       <c r="Q658" s="2"/>
       <c r="R658" s="2"/>
     </row>
-    <row r="659" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -14052,7 +14093,7 @@
       <c r="Q659" s="2"/>
       <c r="R659" s="2"/>
     </row>
-    <row r="660" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -14072,7 +14113,7 @@
       <c r="Q660" s="2"/>
       <c r="R660" s="2"/>
     </row>
-    <row r="661" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -14092,7 +14133,7 @@
       <c r="Q661" s="2"/>
       <c r="R661" s="2"/>
     </row>
-    <row r="662" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -14112,7 +14153,7 @@
       <c r="Q662" s="2"/>
       <c r="R662" s="2"/>
     </row>
-    <row r="663" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -14132,7 +14173,7 @@
       <c r="Q663" s="2"/>
       <c r="R663" s="2"/>
     </row>
-    <row r="664" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -14152,7 +14193,7 @@
       <c r="Q664" s="2"/>
       <c r="R664" s="2"/>
     </row>
-    <row r="665" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -14172,7 +14213,7 @@
       <c r="Q665" s="2"/>
       <c r="R665" s="2"/>
     </row>
-    <row r="666" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -14192,7 +14233,7 @@
       <c r="Q666" s="2"/>
       <c r="R666" s="2"/>
     </row>
-    <row r="667" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -14212,7 +14253,7 @@
       <c r="Q667" s="2"/>
       <c r="R667" s="2"/>
     </row>
-    <row r="668" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -14232,7 +14273,7 @@
       <c r="Q668" s="2"/>
       <c r="R668" s="2"/>
     </row>
-    <row r="669" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -14252,7 +14293,7 @@
       <c r="Q669" s="2"/>
       <c r="R669" s="2"/>
     </row>
-    <row r="670" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -14272,7 +14313,7 @@
       <c r="Q670" s="2"/>
       <c r="R670" s="2"/>
     </row>
-    <row r="671" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -14292,7 +14333,7 @@
       <c r="Q671" s="2"/>
       <c r="R671" s="2"/>
     </row>
-    <row r="672" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -14312,7 +14353,7 @@
       <c r="Q672" s="2"/>
       <c r="R672" s="2"/>
     </row>
-    <row r="673" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -14332,7 +14373,7 @@
       <c r="Q673" s="2"/>
       <c r="R673" s="2"/>
     </row>
-    <row r="674" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -14352,7 +14393,7 @@
       <c r="Q674" s="2"/>
       <c r="R674" s="2"/>
     </row>
-    <row r="675" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -14372,7 +14413,7 @@
       <c r="Q675" s="2"/>
       <c r="R675" s="2"/>
     </row>
-    <row r="676" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -14392,7 +14433,7 @@
       <c r="Q676" s="2"/>
       <c r="R676" s="2"/>
     </row>
-    <row r="677" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -14412,7 +14453,7 @@
       <c r="Q677" s="2"/>
       <c r="R677" s="2"/>
     </row>
-    <row r="678" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -14432,7 +14473,7 @@
       <c r="Q678" s="2"/>
       <c r="R678" s="2"/>
     </row>
-    <row r="679" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -14452,7 +14493,7 @@
       <c r="Q679" s="2"/>
       <c r="R679" s="2"/>
     </row>
-    <row r="680" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -14472,7 +14513,7 @@
       <c r="Q680" s="2"/>
       <c r="R680" s="2"/>
     </row>
-    <row r="681" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -14492,7 +14533,7 @@
       <c r="Q681" s="2"/>
       <c r="R681" s="2"/>
     </row>
-    <row r="682" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -14512,7 +14553,7 @@
       <c r="Q682" s="2"/>
       <c r="R682" s="2"/>
     </row>
-    <row r="683" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -14532,7 +14573,7 @@
       <c r="Q683" s="2"/>
       <c r="R683" s="2"/>
     </row>
-    <row r="684" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -14552,7 +14593,7 @@
       <c r="Q684" s="2"/>
       <c r="R684" s="2"/>
     </row>
-    <row r="685" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -14572,7 +14613,7 @@
       <c r="Q685" s="2"/>
       <c r="R685" s="2"/>
     </row>
-    <row r="686" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -14592,7 +14633,7 @@
       <c r="Q686" s="2"/>
       <c r="R686" s="2"/>
     </row>
-    <row r="687" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -14612,7 +14653,7 @@
       <c r="Q687" s="2"/>
       <c r="R687" s="2"/>
     </row>
-    <row r="688" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -14632,7 +14673,7 @@
       <c r="Q688" s="2"/>
       <c r="R688" s="2"/>
     </row>
-    <row r="689" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -14652,7 +14693,7 @@
       <c r="Q689" s="2"/>
       <c r="R689" s="2"/>
     </row>
-    <row r="690" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -14672,7 +14713,7 @@
       <c r="Q690" s="2"/>
       <c r="R690" s="2"/>
     </row>
-    <row r="691" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -14692,7 +14733,7 @@
       <c r="Q691" s="2"/>
       <c r="R691" s="2"/>
     </row>
-    <row r="692" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -14712,7 +14753,7 @@
       <c r="Q692" s="2"/>
       <c r="R692" s="2"/>
     </row>
-    <row r="693" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -14732,7 +14773,7 @@
       <c r="Q693" s="2"/>
       <c r="R693" s="2"/>
     </row>
-    <row r="694" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -14752,7 +14793,7 @@
       <c r="Q694" s="2"/>
       <c r="R694" s="2"/>
     </row>
-    <row r="695" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -14772,7 +14813,7 @@
       <c r="Q695" s="2"/>
       <c r="R695" s="2"/>
     </row>
-    <row r="696" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -14792,7 +14833,7 @@
       <c r="Q696" s="2"/>
       <c r="R696" s="2"/>
     </row>
-    <row r="697" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -14812,7 +14853,7 @@
       <c r="Q697" s="2"/>
       <c r="R697" s="2"/>
     </row>
-    <row r="698" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -14832,7 +14873,7 @@
       <c r="Q698" s="2"/>
       <c r="R698" s="2"/>
     </row>
-    <row r="699" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -14852,7 +14893,7 @@
       <c r="Q699" s="2"/>
       <c r="R699" s="2"/>
     </row>
-    <row r="700" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -14872,7 +14913,7 @@
       <c r="Q700" s="2"/>
       <c r="R700" s="2"/>
     </row>
-    <row r="701" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -14892,7 +14933,7 @@
       <c r="Q701" s="2"/>
       <c r="R701" s="2"/>
     </row>
-    <row r="702" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -14912,7 +14953,7 @@
       <c r="Q702" s="2"/>
       <c r="R702" s="2"/>
     </row>
-    <row r="703" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -14932,7 +14973,7 @@
       <c r="Q703" s="2"/>
       <c r="R703" s="2"/>
     </row>
-    <row r="704" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -14952,7 +14993,7 @@
       <c r="Q704" s="2"/>
       <c r="R704" s="2"/>
     </row>
-    <row r="705" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -14972,7 +15013,7 @@
       <c r="Q705" s="2"/>
       <c r="R705" s="2"/>
     </row>
-    <row r="706" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -14992,7 +15033,7 @@
       <c r="Q706" s="2"/>
       <c r="R706" s="2"/>
     </row>
-    <row r="707" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -15012,7 +15053,7 @@
       <c r="Q707" s="2"/>
       <c r="R707" s="2"/>
     </row>
-    <row r="708" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -15032,7 +15073,7 @@
       <c r="Q708" s="2"/>
       <c r="R708" s="2"/>
     </row>
-    <row r="709" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -15052,7 +15093,7 @@
       <c r="Q709" s="2"/>
       <c r="R709" s="2"/>
     </row>
-    <row r="710" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -15072,7 +15113,7 @@
       <c r="Q710" s="2"/>
       <c r="R710" s="2"/>
     </row>
-    <row r="711" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -15092,7 +15133,7 @@
       <c r="Q711" s="2"/>
       <c r="R711" s="2"/>
     </row>
-    <row r="712" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -15112,7 +15153,7 @@
       <c r="Q712" s="2"/>
       <c r="R712" s="2"/>
     </row>
-    <row r="713" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -15132,7 +15173,7 @@
       <c r="Q713" s="2"/>
       <c r="R713" s="2"/>
     </row>
-    <row r="714" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -15152,7 +15193,7 @@
       <c r="Q714" s="2"/>
       <c r="R714" s="2"/>
     </row>
-    <row r="715" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -15172,7 +15213,7 @@
       <c r="Q715" s="2"/>
       <c r="R715" s="2"/>
     </row>
-    <row r="716" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -15192,7 +15233,7 @@
       <c r="Q716" s="2"/>
       <c r="R716" s="2"/>
     </row>
-    <row r="717" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -15212,7 +15253,7 @@
       <c r="Q717" s="2"/>
       <c r="R717" s="2"/>
     </row>
-    <row r="718" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -15232,7 +15273,7 @@
       <c r="Q718" s="2"/>
       <c r="R718" s="2"/>
     </row>
-    <row r="719" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -15252,7 +15293,7 @@
       <c r="Q719" s="2"/>
       <c r="R719" s="2"/>
     </row>
-    <row r="720" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -15272,7 +15313,7 @@
       <c r="Q720" s="2"/>
       <c r="R720" s="2"/>
     </row>
-    <row r="721" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -15292,7 +15333,7 @@
       <c r="Q721" s="2"/>
       <c r="R721" s="2"/>
     </row>
-    <row r="722" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -15312,7 +15353,7 @@
       <c r="Q722" s="2"/>
       <c r="R722" s="2"/>
     </row>
-    <row r="723" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -15332,7 +15373,7 @@
       <c r="Q723" s="2"/>
       <c r="R723" s="2"/>
     </row>
-    <row r="724" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -15352,7 +15393,7 @@
       <c r="Q724" s="2"/>
       <c r="R724" s="2"/>
     </row>
-    <row r="725" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -15372,7 +15413,7 @@
       <c r="Q725" s="2"/>
       <c r="R725" s="2"/>
     </row>
-    <row r="726" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -15392,7 +15433,7 @@
       <c r="Q726" s="2"/>
       <c r="R726" s="2"/>
     </row>
-    <row r="727" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -15412,7 +15453,7 @@
       <c r="Q727" s="2"/>
       <c r="R727" s="2"/>
     </row>
-    <row r="728" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -15432,7 +15473,7 @@
       <c r="Q728" s="2"/>
       <c r="R728" s="2"/>
     </row>
-    <row r="729" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -15452,7 +15493,7 @@
       <c r="Q729" s="2"/>
       <c r="R729" s="2"/>
     </row>
-    <row r="730" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -15472,7 +15513,7 @@
       <c r="Q730" s="2"/>
       <c r="R730" s="2"/>
     </row>
-    <row r="731" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -15492,7 +15533,7 @@
       <c r="Q731" s="2"/>
       <c r="R731" s="2"/>
     </row>
-    <row r="732" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -15512,7 +15553,7 @@
       <c r="Q732" s="2"/>
       <c r="R732" s="2"/>
     </row>
-    <row r="733" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -15532,7 +15573,7 @@
       <c r="Q733" s="2"/>
       <c r="R733" s="2"/>
     </row>
-    <row r="734" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -15552,7 +15593,7 @@
       <c r="Q734" s="2"/>
       <c r="R734" s="2"/>
     </row>
-    <row r="735" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -15572,7 +15613,7 @@
       <c r="Q735" s="2"/>
       <c r="R735" s="2"/>
     </row>
-    <row r="736" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -15592,7 +15633,7 @@
       <c r="Q736" s="2"/>
       <c r="R736" s="2"/>
     </row>
-    <row r="737" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -15612,7 +15653,7 @@
       <c r="Q737" s="2"/>
       <c r="R737" s="2"/>
     </row>
-    <row r="738" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -15632,7 +15673,7 @@
       <c r="Q738" s="2"/>
       <c r="R738" s="2"/>
     </row>
-    <row r="739" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -15652,7 +15693,7 @@
       <c r="Q739" s="2"/>
       <c r="R739" s="2"/>
     </row>
-    <row r="740" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -15672,7 +15713,7 @@
       <c r="Q740" s="2"/>
       <c r="R740" s="2"/>
     </row>
-    <row r="741" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -15692,7 +15733,7 @@
       <c r="Q741" s="2"/>
       <c r="R741" s="2"/>
     </row>
-    <row r="742" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -15712,7 +15753,7 @@
       <c r="Q742" s="2"/>
       <c r="R742" s="2"/>
     </row>
-    <row r="743" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -15732,7 +15773,7 @@
       <c r="Q743" s="2"/>
       <c r="R743" s="2"/>
     </row>
-    <row r="744" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -15752,7 +15793,7 @@
       <c r="Q744" s="2"/>
       <c r="R744" s="2"/>
     </row>
-    <row r="745" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -15772,7 +15813,7 @@
       <c r="Q745" s="2"/>
       <c r="R745" s="2"/>
     </row>
-    <row r="746" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -15792,7 +15833,7 @@
       <c r="Q746" s="2"/>
       <c r="R746" s="2"/>
     </row>
-    <row r="747" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -15812,7 +15853,7 @@
       <c r="Q747" s="2"/>
       <c r="R747" s="2"/>
     </row>
-    <row r="748" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -15832,7 +15873,7 @@
       <c r="Q748" s="2"/>
       <c r="R748" s="2"/>
     </row>
-    <row r="749" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -15852,7 +15893,7 @@
       <c r="Q749" s="2"/>
       <c r="R749" s="2"/>
     </row>
-    <row r="750" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -15872,7 +15913,7 @@
       <c r="Q750" s="2"/>
       <c r="R750" s="2"/>
     </row>
-    <row r="751" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -15892,7 +15933,7 @@
       <c r="Q751" s="2"/>
       <c r="R751" s="2"/>
     </row>
-    <row r="752" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -15912,7 +15953,7 @@
       <c r="Q752" s="2"/>
       <c r="R752" s="2"/>
     </row>
-    <row r="753" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -15932,7 +15973,7 @@
       <c r="Q753" s="2"/>
       <c r="R753" s="2"/>
     </row>
-    <row r="754" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -15952,7 +15993,7 @@
       <c r="Q754" s="2"/>
       <c r="R754" s="2"/>
     </row>
-    <row r="755" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -15972,7 +16013,7 @@
       <c r="Q755" s="2"/>
       <c r="R755" s="2"/>
     </row>
-    <row r="756" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -15992,7 +16033,7 @@
       <c r="Q756" s="2"/>
       <c r="R756" s="2"/>
     </row>
-    <row r="757" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -16012,7 +16053,7 @@
       <c r="Q757" s="2"/>
       <c r="R757" s="2"/>
     </row>
-    <row r="758" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -16032,7 +16073,7 @@
       <c r="Q758" s="2"/>
       <c r="R758" s="2"/>
     </row>
-    <row r="759" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -16052,7 +16093,7 @@
       <c r="Q759" s="2"/>
       <c r="R759" s="2"/>
     </row>
-    <row r="760" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -16072,7 +16113,7 @@
       <c r="Q760" s="2"/>
       <c r="R760" s="2"/>
     </row>
-    <row r="761" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -16092,7 +16133,7 @@
       <c r="Q761" s="2"/>
       <c r="R761" s="2"/>
     </row>
-    <row r="762" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -16112,7 +16153,7 @@
       <c r="Q762" s="2"/>
       <c r="R762" s="2"/>
     </row>
-    <row r="763" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -16132,7 +16173,7 @@
       <c r="Q763" s="2"/>
       <c r="R763" s="2"/>
     </row>
-    <row r="764" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -16152,7 +16193,7 @@
       <c r="Q764" s="2"/>
       <c r="R764" s="2"/>
     </row>
-    <row r="765" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -16172,7 +16213,7 @@
       <c r="Q765" s="2"/>
       <c r="R765" s="2"/>
     </row>
-    <row r="766" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -16192,7 +16233,7 @@
       <c r="Q766" s="2"/>
       <c r="R766" s="2"/>
     </row>
-    <row r="767" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -16212,7 +16253,7 @@
       <c r="Q767" s="2"/>
       <c r="R767" s="2"/>
     </row>
-    <row r="768" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -16232,7 +16273,7 @@
       <c r="Q768" s="2"/>
       <c r="R768" s="2"/>
     </row>
-    <row r="769" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -16252,7 +16293,7 @@
       <c r="Q769" s="2"/>
       <c r="R769" s="2"/>
     </row>
-    <row r="770" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -16272,7 +16313,7 @@
       <c r="Q770" s="2"/>
       <c r="R770" s="2"/>
     </row>
-    <row r="771" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -16292,7 +16333,7 @@
       <c r="Q771" s="2"/>
       <c r="R771" s="2"/>
     </row>
-    <row r="772" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -16312,7 +16353,7 @@
       <c r="Q772" s="2"/>
       <c r="R772" s="2"/>
     </row>
-    <row r="773" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -16332,7 +16373,7 @@
       <c r="Q773" s="2"/>
       <c r="R773" s="2"/>
     </row>
-    <row r="774" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -16352,7 +16393,7 @@
       <c r="Q774" s="2"/>
       <c r="R774" s="2"/>
     </row>
-    <row r="775" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -16372,7 +16413,7 @@
       <c r="Q775" s="2"/>
       <c r="R775" s="2"/>
     </row>
-    <row r="776" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -16392,7 +16433,7 @@
       <c r="Q776" s="2"/>
       <c r="R776" s="2"/>
     </row>
-    <row r="777" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -16412,7 +16453,7 @@
       <c r="Q777" s="2"/>
       <c r="R777" s="2"/>
     </row>
-    <row r="778" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -16432,7 +16473,7 @@
       <c r="Q778" s="2"/>
       <c r="R778" s="2"/>
     </row>
-    <row r="779" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -16452,7 +16493,7 @@
       <c r="Q779" s="2"/>
       <c r="R779" s="2"/>
     </row>
-    <row r="780" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -16472,7 +16513,7 @@
       <c r="Q780" s="2"/>
       <c r="R780" s="2"/>
     </row>
-    <row r="781" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -16492,7 +16533,7 @@
       <c r="Q781" s="2"/>
       <c r="R781" s="2"/>
     </row>
-    <row r="782" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -16512,7 +16553,7 @@
       <c r="Q782" s="2"/>
       <c r="R782" s="2"/>
     </row>
-    <row r="783" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -16532,7 +16573,7 @@
       <c r="Q783" s="2"/>
       <c r="R783" s="2"/>
     </row>
-    <row r="784" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -16552,7 +16593,7 @@
       <c r="Q784" s="2"/>
       <c r="R784" s="2"/>
     </row>
-    <row r="785" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -16572,7 +16613,7 @@
       <c r="Q785" s="2"/>
       <c r="R785" s="2"/>
     </row>
-    <row r="786" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -16592,7 +16633,7 @@
       <c r="Q786" s="2"/>
       <c r="R786" s="2"/>
     </row>
-    <row r="787" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -16612,7 +16653,7 @@
       <c r="Q787" s="2"/>
       <c r="R787" s="2"/>
     </row>
-    <row r="788" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -16632,7 +16673,7 @@
       <c r="Q788" s="2"/>
       <c r="R788" s="2"/>
     </row>
-    <row r="789" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -16652,7 +16693,7 @@
       <c r="Q789" s="2"/>
       <c r="R789" s="2"/>
     </row>
-    <row r="790" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -16672,7 +16713,7 @@
       <c r="Q790" s="2"/>
       <c r="R790" s="2"/>
     </row>
-    <row r="791" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -16692,7 +16733,7 @@
       <c r="Q791" s="2"/>
       <c r="R791" s="2"/>
     </row>
-    <row r="792" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -16712,7 +16753,7 @@
       <c r="Q792" s="2"/>
       <c r="R792" s="2"/>
     </row>
-    <row r="793" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -16732,7 +16773,7 @@
       <c r="Q793" s="2"/>
       <c r="R793" s="2"/>
     </row>
-    <row r="794" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -16752,7 +16793,7 @@
       <c r="Q794" s="2"/>
       <c r="R794" s="2"/>
     </row>
-    <row r="795" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -16772,7 +16813,7 @@
       <c r="Q795" s="2"/>
       <c r="R795" s="2"/>
     </row>
-    <row r="796" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -16792,7 +16833,7 @@
       <c r="Q796" s="2"/>
       <c r="R796" s="2"/>
     </row>
-    <row r="797" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -16812,7 +16853,7 @@
       <c r="Q797" s="2"/>
       <c r="R797" s="2"/>
     </row>
-    <row r="798" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -16832,7 +16873,7 @@
       <c r="Q798" s="2"/>
       <c r="R798" s="2"/>
     </row>
-    <row r="799" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -16852,7 +16893,7 @@
       <c r="Q799" s="2"/>
       <c r="R799" s="2"/>
     </row>
-    <row r="800" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -16872,7 +16913,7 @@
       <c r="Q800" s="2"/>
       <c r="R800" s="2"/>
     </row>
-    <row r="801" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -16892,7 +16933,7 @@
       <c r="Q801" s="2"/>
       <c r="R801" s="2"/>
     </row>
-    <row r="802" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -16912,7 +16953,7 @@
       <c r="Q802" s="2"/>
       <c r="R802" s="2"/>
     </row>
-    <row r="803" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -16932,7 +16973,7 @@
       <c r="Q803" s="2"/>
       <c r="R803" s="2"/>
     </row>
-    <row r="804" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -16952,7 +16993,7 @@
       <c r="Q804" s="2"/>
       <c r="R804" s="2"/>
     </row>
-    <row r="805" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -16972,7 +17013,7 @@
       <c r="Q805" s="2"/>
       <c r="R805" s="2"/>
     </row>
-    <row r="806" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -16992,7 +17033,7 @@
       <c r="Q806" s="2"/>
       <c r="R806" s="2"/>
     </row>
-    <row r="807" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -17012,7 +17053,7 @@
       <c r="Q807" s="2"/>
       <c r="R807" s="2"/>
     </row>
-    <row r="808" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -17032,7 +17073,7 @@
       <c r="Q808" s="2"/>
       <c r="R808" s="2"/>
     </row>
-    <row r="809" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -17052,7 +17093,7 @@
       <c r="Q809" s="2"/>
       <c r="R809" s="2"/>
     </row>
-    <row r="810" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -17072,7 +17113,7 @@
       <c r="Q810" s="2"/>
       <c r="R810" s="2"/>
     </row>
-    <row r="811" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -17092,7 +17133,7 @@
       <c r="Q811" s="2"/>
       <c r="R811" s="2"/>
     </row>
-    <row r="812" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -17112,7 +17153,7 @@
       <c r="Q812" s="2"/>
       <c r="R812" s="2"/>
     </row>
-    <row r="813" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -17132,7 +17173,7 @@
       <c r="Q813" s="2"/>
       <c r="R813" s="2"/>
     </row>
-    <row r="814" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -17152,7 +17193,7 @@
       <c r="Q814" s="2"/>
       <c r="R814" s="2"/>
     </row>
-    <row r="815" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -17172,7 +17213,7 @@
       <c r="Q815" s="2"/>
       <c r="R815" s="2"/>
     </row>
-    <row r="816" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -17192,7 +17233,7 @@
       <c r="Q816" s="2"/>
       <c r="R816" s="2"/>
     </row>
-    <row r="817" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -17212,7 +17253,7 @@
       <c r="Q817" s="2"/>
       <c r="R817" s="2"/>
     </row>
-    <row r="818" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -17232,7 +17273,7 @@
       <c r="Q818" s="2"/>
       <c r="R818" s="2"/>
     </row>
-    <row r="819" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -17252,7 +17293,7 @@
       <c r="Q819" s="2"/>
       <c r="R819" s="2"/>
     </row>
-    <row r="820" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -17272,7 +17313,7 @@
       <c r="Q820" s="2"/>
       <c r="R820" s="2"/>
     </row>
-    <row r="821" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -17292,7 +17333,7 @@
       <c r="Q821" s="2"/>
       <c r="R821" s="2"/>
     </row>
-    <row r="822" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -17312,7 +17353,7 @@
       <c r="Q822" s="2"/>
       <c r="R822" s="2"/>
     </row>
-    <row r="823" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -17332,7 +17373,7 @@
       <c r="Q823" s="2"/>
       <c r="R823" s="2"/>
     </row>
-    <row r="824" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -17352,7 +17393,7 @@
       <c r="Q824" s="2"/>
       <c r="R824" s="2"/>
     </row>
-    <row r="825" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -17372,7 +17413,7 @@
       <c r="Q825" s="2"/>
       <c r="R825" s="2"/>
     </row>
-    <row r="826" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -17392,7 +17433,7 @@
       <c r="Q826" s="2"/>
       <c r="R826" s="2"/>
     </row>
-    <row r="827" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -17412,7 +17453,7 @@
       <c r="Q827" s="2"/>
       <c r="R827" s="2"/>
     </row>
-    <row r="828" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -17432,7 +17473,7 @@
       <c r="Q828" s="2"/>
       <c r="R828" s="2"/>
     </row>
-    <row r="829" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -17452,7 +17493,7 @@
       <c r="Q829" s="2"/>
       <c r="R829" s="2"/>
     </row>
-    <row r="830" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -17472,7 +17513,7 @@
       <c r="Q830" s="2"/>
       <c r="R830" s="2"/>
     </row>
-    <row r="831" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -17492,7 +17533,7 @@
       <c r="Q831" s="2"/>
       <c r="R831" s="2"/>
     </row>
-    <row r="832" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -17512,7 +17553,7 @@
       <c r="Q832" s="2"/>
       <c r="R832" s="2"/>
     </row>
-    <row r="833" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -17532,7 +17573,7 @@
       <c r="Q833" s="2"/>
       <c r="R833" s="2"/>
     </row>
-    <row r="834" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -17552,7 +17593,7 @@
       <c r="Q834" s="2"/>
       <c r="R834" s="2"/>
     </row>
-    <row r="835" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -17572,7 +17613,7 @@
       <c r="Q835" s="2"/>
       <c r="R835" s="2"/>
     </row>
-    <row r="836" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -17592,7 +17633,7 @@
       <c r="Q836" s="2"/>
       <c r="R836" s="2"/>
     </row>
-    <row r="837" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -17612,7 +17653,7 @@
       <c r="Q837" s="2"/>
       <c r="R837" s="2"/>
     </row>
-    <row r="838" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -17632,7 +17673,7 @@
       <c r="Q838" s="2"/>
       <c r="R838" s="2"/>
     </row>
-    <row r="839" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -17652,7 +17693,7 @@
       <c r="Q839" s="2"/>
       <c r="R839" s="2"/>
     </row>
-    <row r="840" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -17672,7 +17713,7 @@
       <c r="Q840" s="2"/>
       <c r="R840" s="2"/>
     </row>
-    <row r="841" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -17692,7 +17733,7 @@
       <c r="Q841" s="2"/>
       <c r="R841" s="2"/>
     </row>
-    <row r="842" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -17712,7 +17753,7 @@
       <c r="Q842" s="2"/>
       <c r="R842" s="2"/>
     </row>
-    <row r="843" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -17732,7 +17773,7 @@
       <c r="Q843" s="2"/>
       <c r="R843" s="2"/>
     </row>
-    <row r="844" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -17752,7 +17793,7 @@
       <c r="Q844" s="2"/>
       <c r="R844" s="2"/>
     </row>
-    <row r="845" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -17772,7 +17813,7 @@
       <c r="Q845" s="2"/>
       <c r="R845" s="2"/>
     </row>
-    <row r="846" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -17792,7 +17833,7 @@
       <c r="Q846" s="2"/>
       <c r="R846" s="2"/>
     </row>
-    <row r="847" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -17812,7 +17853,7 @@
       <c r="Q847" s="2"/>
       <c r="R847" s="2"/>
     </row>
-    <row r="848" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -17832,7 +17873,7 @@
       <c r="Q848" s="2"/>
       <c r="R848" s="2"/>
     </row>
-    <row r="849" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -17852,7 +17893,7 @@
       <c r="Q849" s="2"/>
       <c r="R849" s="2"/>
     </row>
-    <row r="850" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -17872,7 +17913,7 @@
       <c r="Q850" s="2"/>
       <c r="R850" s="2"/>
     </row>
-    <row r="851" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -17892,7 +17933,7 @@
       <c r="Q851" s="2"/>
       <c r="R851" s="2"/>
     </row>
-    <row r="852" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -17912,7 +17953,7 @@
       <c r="Q852" s="2"/>
       <c r="R852" s="2"/>
     </row>
-    <row r="853" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -17932,7 +17973,7 @@
       <c r="Q853" s="2"/>
       <c r="R853" s="2"/>
     </row>
-    <row r="854" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -17952,7 +17993,7 @@
       <c r="Q854" s="2"/>
       <c r="R854" s="2"/>
     </row>
-    <row r="855" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -17972,7 +18013,7 @@
       <c r="Q855" s="2"/>
       <c r="R855" s="2"/>
     </row>
-    <row r="856" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -17992,7 +18033,7 @@
       <c r="Q856" s="2"/>
       <c r="R856" s="2"/>
     </row>
-    <row r="857" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -18012,7 +18053,7 @@
       <c r="Q857" s="2"/>
       <c r="R857" s="2"/>
     </row>
-    <row r="858" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -18032,7 +18073,7 @@
       <c r="Q858" s="2"/>
       <c r="R858" s="2"/>
     </row>
-    <row r="859" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -18052,7 +18093,7 @@
       <c r="Q859" s="2"/>
       <c r="R859" s="2"/>
     </row>
-    <row r="860" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -18072,7 +18113,7 @@
       <c r="Q860" s="2"/>
       <c r="R860" s="2"/>
     </row>
-    <row r="861" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -18092,7 +18133,7 @@
       <c r="Q861" s="2"/>
       <c r="R861" s="2"/>
     </row>
-    <row r="862" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -18112,7 +18153,7 @@
       <c r="Q862" s="2"/>
       <c r="R862" s="2"/>
     </row>
-    <row r="863" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -18132,7 +18173,7 @@
       <c r="Q863" s="2"/>
       <c r="R863" s="2"/>
     </row>
-    <row r="864" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -18152,7 +18193,7 @@
       <c r="Q864" s="2"/>
       <c r="R864" s="2"/>
     </row>
-    <row r="865" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -18172,7 +18213,7 @@
       <c r="Q865" s="2"/>
       <c r="R865" s="2"/>
     </row>
-    <row r="866" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -18192,7 +18233,7 @@
       <c r="Q866" s="2"/>
       <c r="R866" s="2"/>
     </row>
-    <row r="867" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -18212,7 +18253,7 @@
       <c r="Q867" s="2"/>
       <c r="R867" s="2"/>
     </row>
-    <row r="868" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -18232,7 +18273,7 @@
       <c r="Q868" s="2"/>
       <c r="R868" s="2"/>
     </row>
-    <row r="869" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -18252,7 +18293,7 @@
       <c r="Q869" s="2"/>
       <c r="R869" s="2"/>
     </row>
-    <row r="870" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -18272,7 +18313,7 @@
       <c r="Q870" s="2"/>
       <c r="R870" s="2"/>
     </row>
-    <row r="871" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -18292,7 +18333,7 @@
       <c r="Q871" s="2"/>
       <c r="R871" s="2"/>
     </row>
-    <row r="872" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -18312,7 +18353,7 @@
       <c r="Q872" s="2"/>
       <c r="R872" s="2"/>
     </row>
-    <row r="873" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -18332,7 +18373,7 @@
       <c r="Q873" s="2"/>
       <c r="R873" s="2"/>
     </row>
-    <row r="874" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -18352,7 +18393,7 @@
       <c r="Q874" s="2"/>
       <c r="R874" s="2"/>
     </row>
-    <row r="875" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -18372,7 +18413,7 @@
       <c r="Q875" s="2"/>
       <c r="R875" s="2"/>
     </row>
-    <row r="876" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -18392,7 +18433,7 @@
       <c r="Q876" s="2"/>
       <c r="R876" s="2"/>
     </row>
-    <row r="877" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -18412,7 +18453,7 @@
       <c r="Q877" s="2"/>
       <c r="R877" s="2"/>
     </row>
-    <row r="878" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -18432,7 +18473,7 @@
       <c r="Q878" s="2"/>
       <c r="R878" s="2"/>
     </row>
-    <row r="879" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -18452,7 +18493,7 @@
       <c r="Q879" s="2"/>
       <c r="R879" s="2"/>
     </row>
-    <row r="880" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -18472,7 +18513,7 @@
       <c r="Q880" s="2"/>
       <c r="R880" s="2"/>
     </row>
-    <row r="881" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -18492,7 +18533,7 @@
       <c r="Q881" s="2"/>
       <c r="R881" s="2"/>
     </row>
-    <row r="882" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -18512,7 +18553,7 @@
       <c r="Q882" s="2"/>
       <c r="R882" s="2"/>
     </row>
-    <row r="883" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -18532,7 +18573,7 @@
       <c r="Q883" s="2"/>
       <c r="R883" s="2"/>
     </row>
-    <row r="884" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -18552,7 +18593,7 @@
       <c r="Q884" s="2"/>
       <c r="R884" s="2"/>
     </row>
-    <row r="885" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -18572,7 +18613,7 @@
       <c r="Q885" s="2"/>
       <c r="R885" s="2"/>
     </row>
-    <row r="886" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -18592,7 +18633,7 @@
       <c r="Q886" s="2"/>
       <c r="R886" s="2"/>
     </row>
-    <row r="887" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -18612,7 +18653,7 @@
       <c r="Q887" s="2"/>
       <c r="R887" s="2"/>
     </row>
-    <row r="888" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -18632,7 +18673,7 @@
       <c r="Q888" s="2"/>
       <c r="R888" s="2"/>
     </row>
-    <row r="889" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -18652,7 +18693,7 @@
       <c r="Q889" s="2"/>
       <c r="R889" s="2"/>
     </row>
-    <row r="890" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -18672,7 +18713,7 @@
       <c r="Q890" s="2"/>
       <c r="R890" s="2"/>
     </row>
-    <row r="891" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -18692,7 +18733,7 @@
       <c r="Q891" s="2"/>
       <c r="R891" s="2"/>
     </row>
-    <row r="892" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -18712,7 +18753,7 @@
       <c r="Q892" s="2"/>
       <c r="R892" s="2"/>
     </row>
-    <row r="893" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -18732,7 +18773,7 @@
       <c r="Q893" s="2"/>
       <c r="R893" s="2"/>
     </row>
-    <row r="894" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -18752,7 +18793,7 @@
       <c r="Q894" s="2"/>
       <c r="R894" s="2"/>
     </row>
-    <row r="895" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -18772,7 +18813,7 @@
       <c r="Q895" s="2"/>
       <c r="R895" s="2"/>
     </row>
-    <row r="896" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -18792,7 +18833,7 @@
       <c r="Q896" s="2"/>
       <c r="R896" s="2"/>
     </row>
-    <row r="897" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -18812,7 +18853,7 @@
       <c r="Q897" s="2"/>
       <c r="R897" s="2"/>
     </row>
-    <row r="898" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -18832,7 +18873,7 @@
       <c r="Q898" s="2"/>
       <c r="R898" s="2"/>
     </row>
-    <row r="899" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -18852,7 +18893,7 @@
       <c r="Q899" s="2"/>
       <c r="R899" s="2"/>
     </row>
-    <row r="900" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -18872,7 +18913,7 @@
       <c r="Q900" s="2"/>
       <c r="R900" s="2"/>
     </row>
-    <row r="901" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -18892,7 +18933,7 @@
       <c r="Q901" s="2"/>
       <c r="R901" s="2"/>
     </row>
-    <row r="902" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -18912,7 +18953,7 @@
       <c r="Q902" s="2"/>
       <c r="R902" s="2"/>
     </row>
-    <row r="903" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -18932,7 +18973,7 @@
       <c r="Q903" s="2"/>
       <c r="R903" s="2"/>
     </row>
-    <row r="904" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -18952,7 +18993,7 @@
       <c r="Q904" s="2"/>
       <c r="R904" s="2"/>
     </row>
-    <row r="905" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -18972,7 +19013,7 @@
       <c r="Q905" s="2"/>
       <c r="R905" s="2"/>
     </row>
-    <row r="906" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -18992,7 +19033,7 @@
       <c r="Q906" s="2"/>
       <c r="R906" s="2"/>
     </row>
-    <row r="907" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -19012,7 +19053,7 @@
       <c r="Q907" s="2"/>
       <c r="R907" s="2"/>
     </row>
-    <row r="908" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -19032,7 +19073,7 @@
       <c r="Q908" s="2"/>
       <c r="R908" s="2"/>
     </row>
-    <row r="909" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -19052,7 +19093,7 @@
       <c r="Q909" s="2"/>
       <c r="R909" s="2"/>
     </row>
-    <row r="910" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -19072,7 +19113,7 @@
       <c r="Q910" s="2"/>
       <c r="R910" s="2"/>
     </row>
-    <row r="911" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -19092,7 +19133,7 @@
       <c r="Q911" s="2"/>
       <c r="R911" s="2"/>
     </row>
-    <row r="912" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -19112,7 +19153,7 @@
       <c r="Q912" s="2"/>
       <c r="R912" s="2"/>
     </row>
-    <row r="913" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -19132,7 +19173,7 @@
       <c r="Q913" s="2"/>
       <c r="R913" s="2"/>
     </row>
-    <row r="914" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -19152,7 +19193,7 @@
       <c r="Q914" s="2"/>
       <c r="R914" s="2"/>
     </row>
-    <row r="915" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -19172,7 +19213,7 @@
       <c r="Q915" s="2"/>
       <c r="R915" s="2"/>
     </row>
-    <row r="916" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -19192,7 +19233,7 @@
       <c r="Q916" s="2"/>
       <c r="R916" s="2"/>
     </row>
-    <row r="917" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -19212,7 +19253,7 @@
       <c r="Q917" s="2"/>
       <c r="R917" s="2"/>
     </row>
-    <row r="918" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -19232,7 +19273,7 @@
       <c r="Q918" s="2"/>
       <c r="R918" s="2"/>
     </row>
-    <row r="919" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -19252,7 +19293,7 @@
       <c r="Q919" s="2"/>
       <c r="R919" s="2"/>
     </row>
-    <row r="920" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -19272,7 +19313,7 @@
       <c r="Q920" s="2"/>
       <c r="R920" s="2"/>
     </row>
-    <row r="921" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -19292,7 +19333,7 @@
       <c r="Q921" s="2"/>
       <c r="R921" s="2"/>
     </row>
-    <row r="922" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -19312,7 +19353,7 @@
       <c r="Q922" s="2"/>
       <c r="R922" s="2"/>
     </row>
-    <row r="923" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -19332,7 +19373,7 @@
       <c r="Q923" s="2"/>
       <c r="R923" s="2"/>
     </row>
-    <row r="924" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -19352,7 +19393,7 @@
       <c r="Q924" s="2"/>
       <c r="R924" s="2"/>
     </row>
-    <row r="925" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -19372,7 +19413,7 @@
       <c r="Q925" s="2"/>
       <c r="R925" s="2"/>
     </row>
-    <row r="926" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -19392,7 +19433,7 @@
       <c r="Q926" s="2"/>
       <c r="R926" s="2"/>
     </row>
-    <row r="927" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -19412,7 +19453,7 @@
       <c r="Q927" s="2"/>
       <c r="R927" s="2"/>
     </row>
-    <row r="928" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -19432,7 +19473,7 @@
       <c r="Q928" s="2"/>
       <c r="R928" s="2"/>
     </row>
-    <row r="929" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -19452,7 +19493,7 @@
       <c r="Q929" s="2"/>
       <c r="R929" s="2"/>
     </row>
-    <row r="930" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -19472,7 +19513,7 @@
       <c r="Q930" s="2"/>
       <c r="R930" s="2"/>
     </row>
-    <row r="931" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -19492,7 +19533,7 @@
       <c r="Q931" s="2"/>
       <c r="R931" s="2"/>
     </row>
-    <row r="932" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -19512,7 +19553,7 @@
       <c r="Q932" s="2"/>
       <c r="R932" s="2"/>
     </row>
-    <row r="933" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -19532,7 +19573,7 @@
       <c r="Q933" s="2"/>
       <c r="R933" s="2"/>
     </row>
-    <row r="934" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -19552,7 +19593,7 @@
       <c r="Q934" s="2"/>
       <c r="R934" s="2"/>
     </row>
-    <row r="935" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -19572,7 +19613,7 @@
       <c r="Q935" s="2"/>
       <c r="R935" s="2"/>
     </row>
-    <row r="936" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -19592,7 +19633,7 @@
       <c r="Q936" s="2"/>
       <c r="R936" s="2"/>
     </row>
-    <row r="937" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -19612,7 +19653,7 @@
       <c r="Q937" s="2"/>
       <c r="R937" s="2"/>
     </row>
-    <row r="938" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -19632,7 +19673,7 @@
       <c r="Q938" s="2"/>
       <c r="R938" s="2"/>
     </row>
-    <row r="939" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -19652,7 +19693,7 @@
       <c r="Q939" s="2"/>
       <c r="R939" s="2"/>
     </row>
-    <row r="940" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -19672,7 +19713,7 @@
       <c r="Q940" s="2"/>
       <c r="R940" s="2"/>
     </row>
-    <row r="941" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -19692,7 +19733,7 @@
       <c r="Q941" s="2"/>
       <c r="R941" s="2"/>
     </row>
-    <row r="942" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -19712,7 +19753,7 @@
       <c r="Q942" s="2"/>
       <c r="R942" s="2"/>
     </row>
-    <row r="943" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -19732,7 +19773,7 @@
       <c r="Q943" s="2"/>
       <c r="R943" s="2"/>
     </row>
-    <row r="944" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -19752,7 +19793,7 @@
       <c r="Q944" s="2"/>
       <c r="R944" s="2"/>
     </row>
-    <row r="945" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -19772,7 +19813,7 @@
       <c r="Q945" s="2"/>
       <c r="R945" s="2"/>
     </row>
-    <row r="946" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -19792,7 +19833,7 @@
       <c r="Q946" s="2"/>
       <c r="R946" s="2"/>
     </row>
-    <row r="947" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -19812,7 +19853,7 @@
       <c r="Q947" s="2"/>
       <c r="R947" s="2"/>
     </row>
-    <row r="948" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -19832,7 +19873,7 @@
       <c r="Q948" s="2"/>
       <c r="R948" s="2"/>
     </row>
-    <row r="949" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -19852,7 +19893,7 @@
       <c r="Q949" s="2"/>
       <c r="R949" s="2"/>
     </row>
-    <row r="950" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -19872,7 +19913,7 @@
       <c r="Q950" s="2"/>
       <c r="R950" s="2"/>
     </row>
-    <row r="951" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -19892,7 +19933,7 @@
       <c r="Q951" s="2"/>
       <c r="R951" s="2"/>
     </row>
-    <row r="952" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -19912,7 +19953,7 @@
       <c r="Q952" s="2"/>
       <c r="R952" s="2"/>
     </row>
-    <row r="953" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -19932,7 +19973,7 @@
       <c r="Q953" s="2"/>
       <c r="R953" s="2"/>
     </row>
-    <row r="954" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -19952,7 +19993,7 @@
       <c r="Q954" s="2"/>
       <c r="R954" s="2"/>
     </row>
-    <row r="955" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -19972,7 +20013,7 @@
       <c r="Q955" s="2"/>
       <c r="R955" s="2"/>
     </row>
-    <row r="956" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -19992,7 +20033,7 @@
       <c r="Q956" s="2"/>
       <c r="R956" s="2"/>
     </row>
-    <row r="957" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -20012,7 +20053,7 @@
       <c r="Q957" s="2"/>
       <c r="R957" s="2"/>
     </row>
-    <row r="958" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -20032,7 +20073,7 @@
       <c r="Q958" s="2"/>
       <c r="R958" s="2"/>
     </row>
-    <row r="959" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -20052,7 +20093,7 @@
       <c r="Q959" s="2"/>
       <c r="R959" s="2"/>
     </row>
-    <row r="960" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -20072,7 +20113,7 @@
       <c r="Q960" s="2"/>
       <c r="R960" s="2"/>
     </row>
-    <row r="961" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -20092,7 +20133,7 @@
       <c r="Q961" s="2"/>
       <c r="R961" s="2"/>
     </row>
-    <row r="962" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -20112,7 +20153,7 @@
       <c r="Q962" s="2"/>
       <c r="R962" s="2"/>
     </row>
-    <row r="963" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -20132,7 +20173,7 @@
       <c r="Q963" s="2"/>
       <c r="R963" s="2"/>
     </row>
-    <row r="964" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -20152,7 +20193,7 @@
       <c r="Q964" s="2"/>
       <c r="R964" s="2"/>
     </row>
-    <row r="965" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -20172,7 +20213,7 @@
       <c r="Q965" s="2"/>
       <c r="R965" s="2"/>
     </row>
-    <row r="966" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -20192,7 +20233,7 @@
       <c r="Q966" s="2"/>
       <c r="R966" s="2"/>
     </row>
-    <row r="967" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -20212,7 +20253,7 @@
       <c r="Q967" s="2"/>
       <c r="R967" s="2"/>
     </row>
-    <row r="968" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -20232,7 +20273,7 @@
       <c r="Q968" s="2"/>
       <c r="R968" s="2"/>
     </row>
-    <row r="969" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -20252,7 +20293,7 @@
       <c r="Q969" s="2"/>
       <c r="R969" s="2"/>
     </row>
-    <row r="970" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -20272,7 +20313,7 @@
       <c r="Q970" s="2"/>
       <c r="R970" s="2"/>
     </row>
-    <row r="971" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -20292,7 +20333,7 @@
       <c r="Q971" s="2"/>
       <c r="R971" s="2"/>
     </row>
-    <row r="972" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -20312,7 +20353,7 @@
       <c r="Q972" s="2"/>
       <c r="R972" s="2"/>
     </row>
-    <row r="973" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -20332,7 +20373,7 @@
       <c r="Q973" s="2"/>
       <c r="R973" s="2"/>
     </row>
-    <row r="974" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -20352,7 +20393,7 @@
       <c r="Q974" s="2"/>
       <c r="R974" s="2"/>
     </row>
-    <row r="975" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -20372,7 +20413,7 @@
       <c r="Q975" s="2"/>
       <c r="R975" s="2"/>
     </row>
-    <row r="976" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -20392,7 +20433,7 @@
       <c r="Q976" s="2"/>
       <c r="R976" s="2"/>
     </row>
-    <row r="977" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -20412,7 +20453,7 @@
       <c r="Q977" s="2"/>
       <c r="R977" s="2"/>
     </row>
-    <row r="978" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -20432,7 +20473,7 @@
       <c r="Q978" s="2"/>
       <c r="R978" s="2"/>
     </row>
-    <row r="979" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -20452,7 +20493,7 @@
       <c r="Q979" s="2"/>
       <c r="R979" s="2"/>
     </row>
-    <row r="980" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -20472,7 +20513,7 @@
       <c r="Q980" s="2"/>
       <c r="R980" s="2"/>
     </row>
-    <row r="981" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -20492,7 +20533,7 @@
       <c r="Q981" s="2"/>
       <c r="R981" s="2"/>
     </row>
-    <row r="982" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -20512,7 +20553,7 @@
       <c r="Q982" s="2"/>
       <c r="R982" s="2"/>
     </row>
-    <row r="983" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -20532,7 +20573,7 @@
       <c r="Q983" s="2"/>
       <c r="R983" s="2"/>
     </row>
-    <row r="984" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -20552,7 +20593,7 @@
       <c r="Q984" s="2"/>
       <c r="R984" s="2"/>
     </row>
-    <row r="985" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -20572,7 +20613,7 @@
       <c r="Q985" s="2"/>
       <c r="R985" s="2"/>
     </row>
-    <row r="986" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -20592,7 +20633,7 @@
       <c r="Q986" s="2"/>
       <c r="R986" s="2"/>
     </row>
-    <row r="987" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -20612,7 +20653,7 @@
       <c r="Q987" s="2"/>
       <c r="R987" s="2"/>
     </row>
-    <row r="988" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -20632,7 +20673,7 @@
       <c r="Q988" s="2"/>
       <c r="R988" s="2"/>
     </row>
-    <row r="989" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -20652,7 +20693,7 @@
       <c r="Q989" s="2"/>
       <c r="R989" s="2"/>
     </row>
-    <row r="990" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -20672,7 +20713,7 @@
       <c r="Q990" s="2"/>
       <c r="R990" s="2"/>
     </row>
-    <row r="991" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -20692,7 +20733,7 @@
       <c r="Q991" s="2"/>
       <c r="R991" s="2"/>
     </row>
-    <row r="992" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -20712,7 +20753,7 @@
       <c r="Q992" s="2"/>
       <c r="R992" s="2"/>
     </row>
-    <row r="993" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -20732,7 +20773,7 @@
       <c r="Q993" s="2"/>
       <c r="R993" s="2"/>
     </row>
-    <row r="994" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -20752,7 +20793,7 @@
       <c r="Q994" s="2"/>
       <c r="R994" s="2"/>
     </row>
-    <row r="995" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -20772,7 +20813,7 @@
       <c r="Q995" s="2"/>
       <c r="R995" s="2"/>
     </row>
-    <row r="996" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -20792,7 +20833,7 @@
       <c r="Q996" s="2"/>
       <c r="R996" s="2"/>
     </row>
-    <row r="997" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -20812,7 +20853,7 @@
       <c r="Q997" s="2"/>
       <c r="R997" s="2"/>
     </row>
-    <row r="998" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -20832,7 +20873,7 @@
       <c r="Q998" s="2"/>
       <c r="R998" s="2"/>
     </row>
-    <row r="999" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -20852,7 +20893,7 @@
       <c r="Q999" s="2"/>
       <c r="R999" s="2"/>
     </row>
-    <row r="1000" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -20874,6 +20915,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65743F1-8792-4961-9F8A-D6A976A2E302}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7C051-FC39-4B0C-9E95-53F82B6D83E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -839,7 +839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
